--- a/Projeto-3/government.xlsx
+++ b/Projeto-3/government.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\New folder (5)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Documents\GitHub\CD_projeto3\Projeto-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Download" sheetId="5" r:id="rId5"/>
     <sheet name="v" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -962,7 +962,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1822,7 +1822,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1897,6 +1897,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1932,6 +1949,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2087,16 +2121,16 @@
   <dimension ref="A1:Q266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="17" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="2" max="17" width="6.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>309</v>
       </c>
@@ -2133,11 +2167,11 @@
       <c r="L1" s="5">
         <v>2005</v>
       </c>
-      <c r="M1" s="5">
-        <v>2006</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>310</v>
+      </c>
+      <c r="N1" s="5">
+        <v>2007</v>
       </c>
       <c r="O1" s="5">
         <v>2008</v>
@@ -2149,7 +2183,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -2170,7 +2204,7 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -2209,7 +2243,7 @@
         <v>4.3904075899999997</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -2230,7 +2264,7 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -2283,7 +2317,7 @@
         <v>94.023612639999996</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -2336,7 +2370,7 @@
         <v>138.84092275</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -2357,7 +2391,7 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -2410,7 +2444,7 @@
         <v>2172.37916163</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -2463,7 +2497,7 @@
         <v>101.5915272</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -2484,7 +2518,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
@@ -2537,7 +2571,7 @@
         <v>489.45570042999998</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -2590,7 +2624,7 @@
         <v>405.05887531000002</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
@@ -2643,7 +2677,7 @@
         <v>54.238760239999998</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
@@ -2664,7 +2698,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
@@ -2717,7 +2751,7 @@
         <v>3246.3658119800002</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>23</v>
       </c>
@@ -2770,7 +2804,7 @@
         <v>3843.4238953899999</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>26</v>
       </c>
@@ -2823,7 +2857,7 @@
         <v>67.262312089999995</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>27</v>
       </c>
@@ -2876,7 +2910,7 @@
         <v>791.11451337000005</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
@@ -2929,7 +2963,7 @@
         <v>633.62770191000004</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -2982,7 +3016,7 @@
         <v>58.005544620000002</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>31</v>
       </c>
@@ -3035,7 +3069,7 @@
         <v>652.30749760000003</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>32</v>
       </c>
@@ -3088,7 +3122,7 @@
         <v>248.31391694000001</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>33</v>
       </c>
@@ -3141,7 +3175,7 @@
         <v>3451.9022217299998</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
@@ -3194,7 +3228,7 @@
         <v>149.71976753999999</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>36</v>
       </c>
@@ -3247,7 +3281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>37</v>
       </c>
@@ -3268,7 +3302,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>39</v>
       </c>
@@ -3321,7 +3355,7 @@
         <v>94.197706960000005</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
@@ -3374,7 +3408,7 @@
         <v>60.653492010000001</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>43</v>
       </c>
@@ -3427,7 +3461,7 @@
         <v>306.52684274000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>44</v>
       </c>
@@ -3480,7 +3514,7 @@
         <v>445.76072305999998</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>45</v>
       </c>
@@ -3533,7 +3567,7 @@
         <v>465.67404002000001</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>46</v>
       </c>
@@ -3554,7 +3588,7 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
     </row>
-    <row r="33" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>48</v>
       </c>
@@ -3607,7 +3641,7 @@
         <v>748.32260895000002</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>49</v>
       </c>
@@ -3660,7 +3694,7 @@
         <v>236.9744713</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>50</v>
       </c>
@@ -3713,7 +3747,7 @@
         <v>20.27447781</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>51</v>
       </c>
@@ -3766,7 +3800,7 @@
         <v>7.9094023800000004</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>53</v>
       </c>
@@ -3819,7 +3853,7 @@
         <v>16.821390109999999</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>55</v>
       </c>
@@ -3872,7 +3906,7 @@
         <v>18.17108644</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>57</v>
       </c>
@@ -3925,7 +3959,7 @@
         <v>3681.4261347800002</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>58</v>
       </c>
@@ -3978,7 +4012,7 @@
         <v>116.0392246</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>59</v>
       </c>
@@ -3999,7 +4033,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>60</v>
       </c>
@@ -4052,7 +4086,7 @@
         <v>6.4365166</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>61</v>
       </c>
@@ -4105,7 +4139,7 @@
         <v>7.65331926</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>64</v>
       </c>
@@ -4126,7 +4160,7 @@
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
     </row>
-    <row r="45" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>65</v>
       </c>
@@ -4179,7 +4213,7 @@
         <v>456.40623165</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>66</v>
       </c>
@@ -4232,7 +4266,7 @@
         <v>118.38841635999999</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>69</v>
       </c>
@@ -4253,7 +4287,7 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>70</v>
       </c>
@@ -4274,7 +4308,7 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
     </row>
-    <row r="49" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>71</v>
       </c>
@@ -4327,7 +4361,7 @@
         <v>343.24719239000001</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>72</v>
       </c>
@@ -4380,7 +4414,7 @@
         <v>22.33183442</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>5</v>
       </c>
@@ -4433,7 +4467,7 @@
         <v>6.6987602700000002</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>78</v>
       </c>
@@ -4486,7 +4520,7 @@
         <v>33.788124269999997</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>79</v>
       </c>
@@ -4539,7 +4573,7 @@
         <v>505.53890813999999</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>80</v>
       </c>
@@ -4592,7 +4626,7 @@
         <v>552.60030071999995</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>81</v>
       </c>
@@ -4645,7 +4679,7 @@
         <v>12.89902835</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>82</v>
       </c>
@@ -4698,7 +4732,7 @@
         <v>905.3148175</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>83</v>
       </c>
@@ -4751,7 +4785,7 @@
         <v>555.26596690999997</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>84</v>
       </c>
@@ -4804,7 +4838,7 @@
         <v>707.49492013999998</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>85</v>
       </c>
@@ -4857,7 +4891,7 @@
         <v>1238.4109685200001</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>86</v>
       </c>
@@ -4878,7 +4912,7 @@
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>87</v>
       </c>
@@ -4931,7 +4965,7 @@
         <v>5465.08605214</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>88</v>
       </c>
@@ -4984,7 +5018,7 @@
         <v>59.843274819999998</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>89</v>
       </c>
@@ -5037,7 +5071,7 @@
         <v>291.99115139000003</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>90</v>
       </c>
@@ -5090,7 +5124,7 @@
         <v>140.17783079</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>91</v>
       </c>
@@ -5111,7 +5145,7 @@
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>92</v>
       </c>
@@ -5164,7 +5198,7 @@
         <v>122.13839462</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>93</v>
       </c>
@@ -5217,7 +5251,7 @@
         <v>46.078980090000002</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>95</v>
       </c>
@@ -5270,7 +5304,7 @@
         <v>146.10060111000001</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>96</v>
       </c>
@@ -5323,7 +5357,7 @@
         <v>680.49435968</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>97</v>
       </c>
@@ -5376,7 +5410,7 @@
         <v>5.7416796400000001</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>98</v>
       </c>
@@ -5397,7 +5431,7 @@
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
     </row>
-    <row r="72" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>99</v>
       </c>
@@ -5450,7 +5484,7 @@
         <v>671.37168727999995</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>100</v>
       </c>
@@ -5503,7 +5537,7 @@
         <v>8.4136979299999997</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>101</v>
       </c>
@@ -5524,7 +5558,7 @@
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
     </row>
-    <row r="75" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>102</v>
       </c>
@@ -5545,7 +5579,7 @@
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
     </row>
-    <row r="76" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>104</v>
       </c>
@@ -5598,7 +5632,7 @@
         <v>108.19264259000001</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>105</v>
       </c>
@@ -5651,7 +5685,7 @@
         <v>2990.4126385499999</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>107</v>
       </c>
@@ -5704,7 +5738,7 @@
         <v>3651.8490060099998</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>108</v>
       </c>
@@ -5725,7 +5759,7 @@
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
     </row>
-    <row r="80" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>110</v>
       </c>
@@ -5746,7 +5780,7 @@
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
     </row>
-    <row r="81" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>114</v>
       </c>
@@ -5799,7 +5833,7 @@
         <v>159.87577109</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>115</v>
       </c>
@@ -5852,7 +5886,7 @@
         <v>13.283301399999999</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>116</v>
       </c>
@@ -5905,7 +5939,7 @@
         <v>64.200040259999994</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>118</v>
       </c>
@@ -5958,7 +5992,7 @@
         <v>3598.2982919400001</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>119</v>
       </c>
@@ -6011,7 +6045,7 @@
         <v>39.875349200000002</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>120</v>
       </c>
@@ -6032,7 +6066,7 @@
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
     </row>
-    <row r="87" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>121</v>
       </c>
@@ -6085,7 +6119,7 @@
         <v>1621.20531781</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>122</v>
       </c>
@@ -6106,7 +6140,7 @@
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
     </row>
-    <row r="89" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>123</v>
       </c>
@@ -6159,7 +6193,7 @@
         <v>197.51370098000001</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>124</v>
       </c>
@@ -6180,7 +6214,7 @@
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
     </row>
-    <row r="91" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>125</v>
       </c>
@@ -6201,7 +6235,7 @@
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
     </row>
-    <row r="92" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>126</v>
       </c>
@@ -6254,7 +6288,7 @@
         <v>68.652654639999994</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>127</v>
       </c>
@@ -6275,7 +6309,7 @@
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
     </row>
-    <row r="94" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>128</v>
       </c>
@@ -6328,7 +6362,7 @@
         <v>2.5971110999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>129</v>
       </c>
@@ -6381,7 +6415,7 @@
         <v>4.7015105899999998</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>130</v>
       </c>
@@ -6434,7 +6468,7 @@
         <v>135.59788621000001</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>131</v>
       </c>
@@ -6487,7 +6521,7 @@
         <v>9.9534509399999997</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>133</v>
       </c>
@@ -6508,7 +6542,7 @@
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
     </row>
-    <row r="99" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>134</v>
       </c>
@@ -6559,7 +6593,7 @@
       </c>
       <c r="Q99" s="7"/>
     </row>
-    <row r="100" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>135</v>
       </c>
@@ -6580,7 +6614,7 @@
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
     </row>
-    <row r="101" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>136</v>
       </c>
@@ -6633,7 +6667,7 @@
         <v>653.76160895999999</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>138</v>
       </c>
@@ -6686,7 +6720,7 @@
         <v>3003.52769674</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>139</v>
       </c>
@@ -6739,7 +6773,7 @@
         <v>15.82486231</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>140</v>
       </c>
@@ -6792,7 +6826,7 @@
         <v>37.74177117</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>142</v>
       </c>
@@ -6845,7 +6879,7 @@
         <v>127.18679950000001</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>18</v>
       </c>
@@ -6896,7 +6930,7 @@
         <v>200.31894008</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>144</v>
       </c>
@@ -6949,7 +6983,7 @@
         <v>2933.4000938899999</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>146</v>
       </c>
@@ -6970,7 +7004,7 @@
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
     </row>
-    <row r="109" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>148</v>
       </c>
@@ -7023,7 +7057,7 @@
         <v>1316.98034953</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>151</v>
       </c>
@@ -7076,7 +7110,7 @@
         <v>2520.7428686500002</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>152</v>
       </c>
@@ -7129,7 +7163,7 @@
         <v>132.31077661</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>153</v>
       </c>
@@ -7182,7 +7216,7 @@
         <v>3355.0700976100002</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>154</v>
       </c>
@@ -7203,7 +7237,7 @@
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
     </row>
-    <row r="114" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>155</v>
       </c>
@@ -7256,7 +7290,7 @@
         <v>241.83869529</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>156</v>
       </c>
@@ -7309,7 +7343,7 @@
         <v>233.45774001000001</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>157</v>
       </c>
@@ -7362,7 +7396,7 @@
         <v>16.32270669</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>158</v>
       </c>
@@ -7415,7 +7449,7 @@
         <v>131.41312937000001</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>159</v>
       </c>
@@ -7436,7 +7470,7 @@
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
     </row>
-    <row r="119" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>160</v>
       </c>
@@ -7487,7 +7521,7 @@
         <v>848.43616544999998</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>163</v>
       </c>
@@ -7508,7 +7542,7 @@
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
     </row>
-    <row r="121" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>164</v>
       </c>
@@ -7529,7 +7563,7 @@
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
     </row>
-    <row r="122" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>165</v>
       </c>
@@ -7582,7 +7616,7 @@
         <v>983.14059780000002</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>166</v>
       </c>
@@ -7635,7 +7669,7 @@
         <v>30.04684327</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>167</v>
       </c>
@@ -7688,7 +7722,7 @@
         <v>15.367497330000001</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>168</v>
       </c>
@@ -7741,7 +7775,7 @@
         <v>438.74289212999997</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>169</v>
       </c>
@@ -7794,7 +7828,7 @@
         <v>254.95531389000001</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>170</v>
       </c>
@@ -7847,7 +7881,7 @@
         <v>83.000869170000001</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>171</v>
       </c>
@@ -7894,7 +7928,7 @@
         <v>9.4872497599999992</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>172</v>
       </c>
@@ -7947,7 +7981,7 @@
         <v>332.69296609000003</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>173</v>
       </c>
@@ -7968,7 +8002,7 @@
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
     </row>
-    <row r="131" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>174</v>
       </c>
@@ -8021,7 +8055,7 @@
         <v>574.23778454000001</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>175</v>
       </c>
@@ -8074,7 +8108,7 @@
         <v>6905.5303441200003</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>176</v>
       </c>
@@ -8095,7 +8129,7 @@
       <c r="P133" s="7"/>
       <c r="Q133" s="7"/>
     </row>
-    <row r="134" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>177</v>
       </c>
@@ -8148,7 +8182,7 @@
         <v>202.00997115000001</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>178</v>
       </c>
@@ -8201,7 +8235,7 @@
         <v>9.5850381200000001</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>179</v>
       </c>
@@ -8254,7 +8288,7 @@
         <v>15.421249319999999</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>180</v>
       </c>
@@ -8307,7 +8341,7 @@
         <v>204.24464946000001</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>181</v>
       </c>
@@ -8360,7 +8394,7 @@
         <v>231.37008657000001</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>182</v>
       </c>
@@ -8413,7 +8447,7 @@
         <v>14.74603617</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>183</v>
       </c>
@@ -8466,7 +8500,7 @@
         <v>1111.1156390599999</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>184</v>
       </c>
@@ -8519,7 +8553,7 @@
         <v>433.13185184000002</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>185</v>
       </c>
@@ -8540,7 +8574,7 @@
       <c r="P142" s="7"/>
       <c r="Q142" s="7"/>
     </row>
-    <row r="143" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>186</v>
       </c>
@@ -8593,7 +8627,7 @@
         <v>22.668541099999999</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>187</v>
       </c>
@@ -8646,7 +8680,7 @@
         <v>187.22084082000001</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>188</v>
       </c>
@@ -8667,7 +8701,7 @@
       <c r="P145" s="7"/>
       <c r="Q145" s="7"/>
     </row>
-    <row r="146" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>189</v>
       </c>
@@ -8718,7 +8752,7 @@
       </c>
       <c r="Q146" s="7"/>
     </row>
-    <row r="147" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>190</v>
       </c>
@@ -8771,7 +8805,7 @@
         <v>333.82284088</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>191</v>
       </c>
@@ -8824,7 +8858,7 @@
         <v>87.198917609999995</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>192</v>
       </c>
@@ -8877,7 +8911,7 @@
         <v>5569.6647540000004</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>193</v>
       </c>
@@ -8930,7 +8964,7 @@
         <v>66.169247400000003</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>194</v>
       </c>
@@ -8983,7 +9017,7 @@
         <v>388.48505378999999</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>195</v>
       </c>
@@ -9004,7 +9038,7 @@
       <c r="P152" s="7"/>
       <c r="Q152" s="7"/>
     </row>
-    <row r="153" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>196</v>
       </c>
@@ -9057,7 +9091,7 @@
         <v>56.156513689999997</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>197</v>
       </c>
@@ -9110,7 +9144,7 @@
         <v>15.30809273</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
         <v>24</v>
       </c>
@@ -9163,7 +9197,7 @@
         <v>2.08765066</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>198</v>
       </c>
@@ -9216,7 +9250,7 @@
         <v>210.94576663999999</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>199</v>
       </c>
@@ -9269,7 +9303,7 @@
         <v>488.63786728000002</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>200</v>
       </c>
@@ -9322,7 +9356,7 @@
         <v>9.8985135</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>201</v>
       </c>
@@ -9375,7 +9409,7 @@
         <v>4431.1184121599999</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>202</v>
       </c>
@@ -9396,7 +9430,7 @@
       <c r="P160" s="7"/>
       <c r="Q160" s="7"/>
     </row>
-    <row r="161" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>203</v>
       </c>
@@ -9417,7 +9451,7 @@
       <c r="P161" s="7"/>
       <c r="Q161" s="7"/>
     </row>
-    <row r="162" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>204</v>
       </c>
@@ -9470,7 +9504,7 @@
         <v>2728.4954333999999</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>205</v>
       </c>
@@ -9491,7 +9525,7 @@
       <c r="P163" s="7"/>
       <c r="Q163" s="7"/>
     </row>
-    <row r="164" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>206</v>
       </c>
@@ -9542,7 +9576,7 @@
       </c>
       <c r="Q164" s="7"/>
     </row>
-    <row r="165" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>207</v>
       </c>
@@ -9595,7 +9629,7 @@
         <v>9.30410717</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>208</v>
       </c>
@@ -9648,7 +9682,7 @@
         <v>23.789390260000001</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>209</v>
       </c>
@@ -9701,7 +9735,7 @@
         <v>2302.0864651100001</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
         <v>210</v>
       </c>
@@ -9722,7 +9756,7 @@
       <c r="P168" s="7"/>
       <c r="Q168" s="7"/>
     </row>
-    <row r="169" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
         <v>211</v>
       </c>
@@ -9743,7 +9777,7 @@
       <c r="P169" s="7"/>
       <c r="Q169" s="7"/>
     </row>
-    <row r="170" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>212</v>
       </c>
@@ -9764,7 +9798,7 @@
       <c r="P170" s="7"/>
       <c r="Q170" s="7"/>
     </row>
-    <row r="171" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>213</v>
       </c>
@@ -9817,7 +9851,7 @@
         <v>6788.3887561399997</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>214</v>
       </c>
@@ -9870,7 +9904,7 @@
         <v>460.21087194</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>215</v>
       </c>
@@ -9923,7 +9957,7 @@
         <v>8.3799678899999996</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>216</v>
       </c>
@@ -9976,7 +10010,7 @@
         <v>657.00835161999998</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>217</v>
       </c>
@@ -10029,7 +10063,7 @@
         <v>462.91904191999998</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>218</v>
       </c>
@@ -10082,7 +10116,7 @@
         <v>35.35712942</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>219</v>
       </c>
@@ -10135,7 +10169,7 @@
         <v>59.297241309999997</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>220</v>
       </c>
@@ -10188,7 +10222,7 @@
         <v>145.19148447000001</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>221</v>
       </c>
@@ -10241,7 +10275,7 @@
         <v>27.330583699999998</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>222</v>
       </c>
@@ -10262,7 +10296,7 @@
       <c r="P180" s="7"/>
       <c r="Q180" s="7"/>
     </row>
-    <row r="181" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
         <v>223</v>
       </c>
@@ -10315,7 +10349,7 @@
         <v>666.01938308000001</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
         <v>224</v>
       </c>
@@ -10368,7 +10402,7 @@
         <v>1612.7512732099999</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
         <v>225</v>
       </c>
@@ -10389,7 +10423,7 @@
       <c r="P183" s="7"/>
       <c r="Q183" s="7"/>
     </row>
-    <row r="184" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
         <v>226</v>
       </c>
@@ -10442,7 +10476,7 @@
         <v>1153.07598906</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
         <v>227</v>
       </c>
@@ -10463,7 +10497,7 @@
       <c r="P185" s="7"/>
       <c r="Q185" s="7"/>
     </row>
-    <row r="186" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
         <v>228</v>
       </c>
@@ -10516,7 +10550,7 @@
         <v>334.31746115999999</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
         <v>229</v>
       </c>
@@ -10569,7 +10603,7 @@
         <v>326.09202964000002</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
         <v>230</v>
       </c>
@@ -10622,7 +10656,7 @@
         <v>27.796329320000002</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
         <v>231</v>
       </c>
@@ -10643,7 +10677,7 @@
       <c r="P189" s="7"/>
       <c r="Q189" s="7"/>
     </row>
-    <row r="190" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
         <v>232</v>
       </c>
@@ -10664,7 +10698,7 @@
       <c r="P190" s="7"/>
       <c r="Q190" s="7"/>
     </row>
-    <row r="191" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
         <v>233</v>
       </c>
@@ -10717,7 +10751,7 @@
         <v>404.98878329000001</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
         <v>234</v>
       </c>
@@ -10770,7 +10804,7 @@
         <v>281.48247400000002</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
         <v>235</v>
       </c>
@@ -10791,7 +10825,7 @@
       <c r="P193" s="7"/>
       <c r="Q193" s="7"/>
     </row>
-    <row r="194" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
         <v>236</v>
       </c>
@@ -10844,7 +10878,7 @@
         <v>240.44788754000001</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
         <v>237</v>
       </c>
@@ -10865,7 +10899,7 @@
       <c r="P195" s="7"/>
       <c r="Q195" s="7"/>
     </row>
-    <row r="196" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
         <v>238</v>
       </c>
@@ -10918,7 +10952,7 @@
         <v>178.81395950999999</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
         <v>239</v>
       </c>
@@ -10971,7 +11005,7 @@
         <v>3120.0243001600002</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
         <v>240</v>
       </c>
@@ -11024,7 +11058,7 @@
         <v>34.447340769999997</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
         <v>241</v>
       </c>
@@ -11077,7 +11111,7 @@
         <v>427.22197706999998</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
         <v>242</v>
       </c>
@@ -11130,7 +11164,7 @@
         <v>32.46603794</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
         <v>243</v>
       </c>
@@ -11183,7 +11217,7 @@
         <v>337.83045838999999</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
         <v>244</v>
       </c>
@@ -11204,7 +11238,7 @@
       <c r="P202" s="7"/>
       <c r="Q202" s="7"/>
     </row>
-    <row r="203" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
         <v>245</v>
       </c>
@@ -11225,7 +11259,7 @@
       <c r="P203" s="7"/>
       <c r="Q203" s="7"/>
     </row>
-    <row r="204" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
         <v>246</v>
       </c>
@@ -11278,7 +11312,7 @@
         <v>338.54272178000002</v>
       </c>
     </row>
-    <row r="205" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
         <v>247</v>
       </c>
@@ -11331,7 +11365,7 @@
         <v>4.8169555600000002</v>
       </c>
     </row>
-    <row r="206" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
         <v>248</v>
       </c>
@@ -11384,7 +11418,7 @@
         <v>629.09659420000003</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
         <v>249</v>
       </c>
@@ -11437,7 +11471,7 @@
         <v>930.29322625999998</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
         <v>250</v>
       </c>
@@ -11490,7 +11524,7 @@
         <v>1586.85123335</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
         <v>251</v>
       </c>
@@ -11543,7 +11577,7 @@
         <v>99.560215889999995</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
         <v>252</v>
       </c>
@@ -11578,7 +11612,7 @@
       <c r="P210" s="7"/>
       <c r="Q210" s="7"/>
     </row>
-    <row r="211" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
         <v>253</v>
       </c>
@@ -11599,7 +11633,7 @@
       <c r="P211" s="7"/>
       <c r="Q211" s="7"/>
     </row>
-    <row r="212" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
         <v>254</v>
       </c>
@@ -11652,7 +11686,7 @@
         <v>286.10006465999999</v>
       </c>
     </row>
-    <row r="213" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
         <v>255</v>
       </c>
@@ -11673,7 +11707,7 @@
       <c r="P213" s="7"/>
       <c r="Q213" s="7"/>
     </row>
-    <row r="214" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
         <v>256</v>
       </c>
@@ -11726,7 +11760,7 @@
         <v>2099.0959122899999</v>
       </c>
     </row>
-    <row r="215" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
         <v>257</v>
       </c>
@@ -11779,7 +11813,7 @@
         <v>31.305791679999999</v>
       </c>
     </row>
-    <row r="216" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
         <v>258</v>
       </c>
@@ -11832,7 +11866,7 @@
         <v>25.016534329999999</v>
       </c>
     </row>
-    <row r="217" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
         <v>259</v>
       </c>
@@ -11885,7 +11919,7 @@
         <v>235.35419231</v>
       </c>
     </row>
-    <row r="218" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
         <v>260</v>
       </c>
@@ -11906,7 +11940,7 @@
       <c r="P218" s="7"/>
       <c r="Q218" s="7"/>
     </row>
-    <row r="219" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
         <v>261</v>
       </c>
@@ -11959,7 +11993,7 @@
         <v>129.30581330000001</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
         <v>262</v>
       </c>
@@ -12012,7 +12046,7 @@
         <v>3820.11679392</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
         <v>263</v>
       </c>
@@ -12065,7 +12099,7 @@
         <v>4610.7746097899999</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
         <v>264</v>
       </c>
@@ -12118,7 +12152,7 @@
         <v>44.429104809999998</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
         <v>265</v>
       </c>
@@ -12139,7 +12173,7 @@
       <c r="P223" s="7"/>
       <c r="Q223" s="7"/>
     </row>
-    <row r="224" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="s">
         <v>266</v>
       </c>
@@ -12192,7 +12226,7 @@
         <v>13.080335549999999</v>
       </c>
     </row>
-    <row r="225" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="8" t="s">
         <v>267</v>
       </c>
@@ -12245,7 +12279,7 @@
         <v>20.80846017</v>
       </c>
     </row>
-    <row r="226" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="s">
         <v>268</v>
       </c>
@@ -12298,7 +12332,7 @@
         <v>134.43340545999999</v>
       </c>
     </row>
-    <row r="227" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
         <v>269</v>
       </c>
@@ -12351,7 +12385,7 @@
         <v>31.744422360000002</v>
       </c>
     </row>
-    <row r="228" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
         <v>270</v>
       </c>
@@ -12404,7 +12438,7 @@
         <v>17.96115138</v>
       </c>
     </row>
-    <row r="229" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
         <v>271</v>
       </c>
@@ -12425,7 +12459,7 @@
       <c r="P229" s="7"/>
       <c r="Q229" s="7"/>
     </row>
-    <row r="230" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
         <v>272</v>
       </c>
@@ -12478,7 +12512,7 @@
         <v>140.01594921</v>
       </c>
     </row>
-    <row r="231" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
         <v>273</v>
       </c>
@@ -12499,7 +12533,7 @@
       <c r="P231" s="7"/>
       <c r="Q231" s="7"/>
     </row>
-    <row r="232" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
         <v>274</v>
       </c>
@@ -12552,7 +12586,7 @@
         <v>515.64324455999997</v>
       </c>
     </row>
-    <row r="233" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="8" t="s">
         <v>275</v>
       </c>
@@ -12605,7 +12639,7 @@
         <v>129.14504282999999</v>
       </c>
     </row>
-    <row r="234" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
         <v>276</v>
       </c>
@@ -12658,7 +12692,7 @@
         <v>509.96374350000002</v>
       </c>
     </row>
-    <row r="235" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
         <v>277</v>
       </c>
@@ -12711,7 +12745,7 @@
         <v>62.99335327</v>
       </c>
     </row>
-    <row r="236" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="s">
         <v>278</v>
       </c>
@@ -12732,7 +12766,7 @@
       <c r="P236" s="7"/>
       <c r="Q236" s="7"/>
     </row>
-    <row r="237" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
         <v>279</v>
       </c>
@@ -12785,7 +12819,7 @@
         <v>567.45131218999995</v>
       </c>
     </row>
-    <row r="238" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
         <v>280</v>
       </c>
@@ -12838,7 +12872,7 @@
         <v>10.15830802</v>
       </c>
     </row>
-    <row r="239" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
         <v>281</v>
       </c>
@@ -12891,7 +12925,7 @@
         <v>132.71233821999999</v>
       </c>
     </row>
-    <row r="240" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="s">
         <v>282</v>
       </c>
@@ -12944,7 +12978,7 @@
         <v>1078.2392533899999</v>
       </c>
     </row>
-    <row r="241" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
         <v>283</v>
       </c>
@@ -12997,7 +13031,7 @@
         <v>2938.4240049</v>
       </c>
     </row>
-    <row r="242" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="s">
         <v>284</v>
       </c>
@@ -13050,7 +13084,7 @@
         <v>4436.6070492600002</v>
       </c>
     </row>
-    <row r="243" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
         <v>285</v>
       </c>
@@ -13103,7 +13137,7 @@
         <v>669.40953284</v>
       </c>
     </row>
-    <row r="244" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
         <v>286</v>
       </c>
@@ -13124,7 +13158,7 @@
       <c r="P244" s="7"/>
       <c r="Q244" s="7"/>
     </row>
-    <row r="245" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
         <v>287</v>
       </c>
@@ -13177,7 +13211,7 @@
         <v>39.132169830000002</v>
       </c>
     </row>
-    <row r="246" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
         <v>288</v>
       </c>
@@ -13198,7 +13232,7 @@
       <c r="P246" s="7"/>
       <c r="Q246" s="7"/>
     </row>
-    <row r="247" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
         <v>289</v>
       </c>
@@ -13251,7 +13285,7 @@
         <v>142.56482940000001</v>
       </c>
     </row>
-    <row r="248" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
         <v>290</v>
       </c>
@@ -13304,7 +13338,7 @@
         <v>231.51860224000001</v>
       </c>
     </row>
-    <row r="249" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="8" t="s">
         <v>291</v>
       </c>
@@ -13325,7 +13359,7 @@
       <c r="P249" s="7"/>
       <c r="Q249" s="7"/>
     </row>
-    <row r="250" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="s">
         <v>292</v>
       </c>
@@ -13346,7 +13380,7 @@
       <c r="P250" s="7"/>
       <c r="Q250" s="7"/>
     </row>
-    <row r="251" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="8" t="s">
         <v>293</v>
       </c>
@@ -13367,7 +13401,7 @@
       <c r="P251" s="7"/>
       <c r="Q251" s="7"/>
     </row>
-    <row r="252" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
         <v>294</v>
       </c>
@@ -13420,7 +13454,7 @@
         <v>31.359855459999999</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="8" t="s">
         <v>295</v>
       </c>
@@ -13441,7 +13475,7 @@
       <c r="P253" s="7"/>
       <c r="Q253" s="7"/>
     </row>
-    <row r="254" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="s">
         <v>296</v>
       </c>
@@ -13462,7 +13496,7 @@
       <c r="P254" s="7"/>
       <c r="Q254" s="7"/>
     </row>
-    <row r="255" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
         <v>297</v>
       </c>
@@ -13483,7 +13517,7 @@
       <c r="P255" s="7"/>
       <c r="Q255" s="7"/>
     </row>
-    <row r="256" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
         <v>298</v>
       </c>
@@ -13536,7 +13570,7 @@
         <v>15.269639939999999</v>
       </c>
     </row>
-    <row r="257" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
         <v>299</v>
       </c>
@@ -13557,7 +13591,7 @@
       <c r="P257" s="7"/>
       <c r="Q257" s="7"/>
     </row>
-    <row r="258" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
         <v>300</v>
       </c>
@@ -13610,7 +13644,7 @@
         <v>43.932037450000003</v>
       </c>
     </row>
-    <row r="259" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
         <v>301</v>
       </c>
@@ -13645,7 +13679,7 @@
       <c r="P259" s="7"/>
       <c r="Q259" s="7"/>
     </row>
-    <row r="260" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
         <v>302</v>
       </c>
@@ -13666,7 +13700,7 @@
       <c r="P260" s="7"/>
       <c r="Q260" s="7"/>
     </row>
-    <row r="261" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
         <v>303</v>
       </c>
@@ -13687,7 +13721,7 @@
       <c r="P261" s="7"/>
       <c r="Q261" s="7"/>
     </row>
-    <row r="262" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
         <v>304</v>
       </c>
@@ -13708,7 +13742,7 @@
       <c r="P262" s="7"/>
       <c r="Q262" s="7"/>
     </row>
-    <row r="263" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="8" t="s">
         <v>305</v>
       </c>
@@ -13729,7 +13763,7 @@
       <c r="P263" s="7"/>
       <c r="Q263" s="7"/>
     </row>
-    <row r="264" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
         <v>306</v>
       </c>
@@ -13750,7 +13784,7 @@
       <c r="P264" s="7"/>
       <c r="Q264" s="7"/>
     </row>
-    <row r="265" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
         <v>307</v>
       </c>
@@ -13771,7 +13805,7 @@
       <c r="P265" s="7"/>
       <c r="Q265" s="7"/>
     </row>
-    <row r="266" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
         <v>308</v>
       </c>
@@ -13808,17 +13842,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
-    <col min="3" max="3" width="91.28515625" customWidth="1"/>
-    <col min="4" max="4" width="2.28515625" customWidth="1"/>
-    <col min="5" max="5" width="1560.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.1796875" customWidth="1"/>
+    <col min="2" max="2" width="44.54296875" customWidth="1"/>
+    <col min="3" max="3" width="91.26953125" customWidth="1"/>
+    <col min="4" max="4" width="2.26953125" customWidth="1"/>
+    <col min="5" max="5" width="1560.54296875" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="76" t="str">
         <f>C4</f>
@@ -13829,7 +13863,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -13837,7 +13871,7 @@
       <c r="E2" s="13"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="21" t="s">
         <v>29</v>
@@ -13847,7 +13881,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="23" t="s">
         <v>34</v>
@@ -13859,7 +13893,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="26" t="s">
         <v>38</v>
@@ -13871,7 +13905,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="26" t="s">
         <v>42</v>
@@ -13881,7 +13915,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="29"/>
@@ -13889,7 +13923,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="31" t="s">
         <v>47</v>
@@ -13899,7 +13933,7 @@
       <c r="E8" s="34"/>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="35" t="s">
         <v>52</v>
@@ -13911,7 +13945,7 @@
       <c r="E9" s="34"/>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="38" t="s">
         <v>56</v>
@@ -13924,7 +13958,7 @@
       <c r="E10" s="34"/>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="38" t="s">
         <v>62</v>
@@ -13936,7 +13970,7 @@
       <c r="E11" s="34"/>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="38" t="s">
         <v>67</v>
@@ -13948,7 +13982,7 @@
       <c r="E12" s="34"/>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="43"/>
       <c r="C13" s="44"/>
@@ -13956,7 +13990,7 @@
       <c r="E13" s="34"/>
       <c r="F13" s="19"/>
     </row>
-    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="31" t="s">
         <v>73</v>
@@ -13966,7 +14000,7 @@
       <c r="E14" s="34"/>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="35" t="s">
         <v>74</v>
@@ -13978,7 +14012,7 @@
       <c r="E15" s="34"/>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="38" t="s">
         <v>76</v>
@@ -13990,7 +14024,7 @@
       <c r="E16" s="34"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="33"/>
       <c r="C17" s="46"/>
@@ -13998,7 +14032,7 @@
       <c r="E17" s="34"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="33"/>
       <c r="C18" s="46"/>
@@ -14006,7 +14040,7 @@
       <c r="E18" s="34"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="33"/>
       <c r="C19" s="46"/>
@@ -14014,7 +14048,7 @@
       <c r="E19" s="34"/>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="33"/>
       <c r="C20" s="46"/>
@@ -14022,7 +14056,7 @@
       <c r="E20" s="34"/>
       <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="33"/>
       <c r="C21" s="46"/>
@@ -14030,7 +14064,7 @@
       <c r="E21" s="34"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="33"/>
       <c r="C22" s="47"/>
@@ -14038,7 +14072,7 @@
       <c r="E22" s="34"/>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="43"/>
       <c r="C23" s="48"/>
@@ -14046,7 +14080,7 @@
       <c r="E23" s="34"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -14054,7 +14088,7 @@
       <c r="E24" s="34"/>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -14080,19 +14114,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="91.28515625" customWidth="1"/>
-    <col min="4" max="21" width="5.5703125" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" customWidth="1"/>
-    <col min="25" max="25" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="91.26953125" customWidth="1"/>
+    <col min="4" max="21" width="5.54296875" customWidth="1"/>
+    <col min="22" max="22" width="6.54296875" customWidth="1"/>
+    <col min="23" max="23" width="7.7265625" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" customWidth="1"/>
+    <col min="25" max="25" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -14125,7 +14159,7 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="7"/>
     </row>
-    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -14158,7 +14192,7 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="7"/>
     </row>
-    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
@@ -14191,7 +14225,7 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="7"/>
     </row>
-    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
@@ -14224,7 +14258,7 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="7"/>
     </row>
-    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="4"/>
@@ -14251,7 +14285,7 @@
       <c r="X5" s="6"/>
       <c r="Y5" s="7"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="4"/>
@@ -14278,7 +14312,7 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="7"/>
     </row>
-    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -14305,7 +14339,7 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="7"/>
     </row>
-    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -14332,7 +14366,7 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="7"/>
     </row>
-    <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -14359,7 +14393,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -14386,7 +14420,7 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -14413,7 +14447,7 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="7"/>
     </row>
-    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -14440,7 +14474,7 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="7"/>
     </row>
-    <row r="13" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -14467,7 +14501,7 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="7"/>
     </row>
-    <row r="14" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -14494,7 +14528,7 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="7"/>
     </row>
-    <row r="15" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -14521,7 +14555,7 @@
       <c r="X15" s="6"/>
       <c r="Y15" s="7"/>
     </row>
-    <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -14548,7 +14582,7 @@
       <c r="X16" s="6"/>
       <c r="Y16" s="7"/>
     </row>
-    <row r="17" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -14575,7 +14609,7 @@
       <c r="X17" s="6"/>
       <c r="Y17" s="7"/>
     </row>
-    <row r="18" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -14602,7 +14636,7 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="7"/>
     </row>
-    <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -14629,7 +14663,7 @@
       <c r="X19" s="6"/>
       <c r="Y19" s="7"/>
     </row>
-    <row r="20" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -14656,7 +14690,7 @@
       <c r="X20" s="6"/>
       <c r="Y20" s="7"/>
     </row>
-    <row r="21" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -14683,7 +14717,7 @@
       <c r="X21" s="6"/>
       <c r="Y21" s="7"/>
     </row>
-    <row r="22" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -14710,7 +14744,7 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="7"/>
     </row>
-    <row r="23" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -14737,7 +14771,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="7"/>
     </row>
-    <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -14764,7 +14798,7 @@
       <c r="X24" s="6"/>
       <c r="Y24" s="7"/>
     </row>
-    <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -14791,7 +14825,7 @@
       <c r="X25" s="6"/>
       <c r="Y25" s="7"/>
     </row>
-    <row r="26" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -14818,7 +14852,7 @@
       <c r="X26" s="6"/>
       <c r="Y26" s="7"/>
     </row>
-    <row r="27" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -14845,7 +14879,7 @@
       <c r="X27" s="6"/>
       <c r="Y27" s="7"/>
     </row>
-    <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -14872,7 +14906,7 @@
       <c r="X28" s="6"/>
       <c r="Y28" s="7"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -14899,7 +14933,7 @@
       <c r="X29" s="6"/>
       <c r="Y29" s="7"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -14926,7 +14960,7 @@
       <c r="X30" s="6"/>
       <c r="Y30" s="7"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -14953,7 +14987,7 @@
       <c r="X31" s="6"/>
       <c r="Y31" s="7"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -14980,7 +15014,7 @@
       <c r="X32" s="6"/>
       <c r="Y32" s="7"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -15007,7 +15041,7 @@
       <c r="X33" s="6"/>
       <c r="Y33" s="7"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -15034,7 +15068,7 @@
       <c r="X34" s="6"/>
       <c r="Y34" s="7"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -15061,7 +15095,7 @@
       <c r="X35" s="6"/>
       <c r="Y35" s="7"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -15088,7 +15122,7 @@
       <c r="X36" s="6"/>
       <c r="Y36" s="7"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -15115,7 +15149,7 @@
       <c r="X37" s="6"/>
       <c r="Y37" s="7"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -15142,7 +15176,7 @@
       <c r="X38" s="6"/>
       <c r="Y38" s="7"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -15169,7 +15203,7 @@
       <c r="X39" s="6"/>
       <c r="Y39" s="7"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -15196,7 +15230,7 @@
       <c r="X40" s="6"/>
       <c r="Y40" s="7"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -15223,7 +15257,7 @@
       <c r="X41" s="6"/>
       <c r="Y41" s="7"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -15250,7 +15284,7 @@
       <c r="X42" s="6"/>
       <c r="Y42" s="7"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -15277,7 +15311,7 @@
       <c r="X43" s="6"/>
       <c r="Y43" s="7"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -15304,7 +15338,7 @@
       <c r="X44" s="6"/>
       <c r="Y44" s="7"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -15331,7 +15365,7 @@
       <c r="X45" s="6"/>
       <c r="Y45" s="7"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -15358,7 +15392,7 @@
       <c r="X46" s="6"/>
       <c r="Y46" s="7"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -15385,7 +15419,7 @@
       <c r="X47" s="6"/>
       <c r="Y47" s="7"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -15412,7 +15446,7 @@
       <c r="X48" s="6"/>
       <c r="Y48" s="7"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -15439,7 +15473,7 @@
       <c r="X49" s="6"/>
       <c r="Y49" s="7"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -15466,7 +15500,7 @@
       <c r="X50" s="6"/>
       <c r="Y50" s="7"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -15493,7 +15527,7 @@
       <c r="X51" s="6"/>
       <c r="Y51" s="7"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -15520,7 +15554,7 @@
       <c r="X52" s="6"/>
       <c r="Y52" s="7"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -15547,7 +15581,7 @@
       <c r="X53" s="6"/>
       <c r="Y53" s="7"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -15574,7 +15608,7 @@
       <c r="X54" s="6"/>
       <c r="Y54" s="7"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -15601,7 +15635,7 @@
       <c r="X55" s="6"/>
       <c r="Y55" s="7"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -15628,7 +15662,7 @@
       <c r="X56" s="6"/>
       <c r="Y56" s="7"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -15655,7 +15689,7 @@
       <c r="X57" s="6"/>
       <c r="Y57" s="7"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -15682,7 +15716,7 @@
       <c r="X58" s="6"/>
       <c r="Y58" s="7"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -15709,7 +15743,7 @@
       <c r="X59" s="6"/>
       <c r="Y59" s="7"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -15736,7 +15770,7 @@
       <c r="X60" s="6"/>
       <c r="Y60" s="7"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -15763,7 +15797,7 @@
       <c r="X61" s="6"/>
       <c r="Y61" s="7"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -15790,7 +15824,7 @@
       <c r="X62" s="6"/>
       <c r="Y62" s="7"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -15817,7 +15851,7 @@
       <c r="X63" s="6"/>
       <c r="Y63" s="7"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -15844,7 +15878,7 @@
       <c r="X64" s="6"/>
       <c r="Y64" s="7"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -15871,7 +15905,7 @@
       <c r="X65" s="6"/>
       <c r="Y65" s="7"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -15898,7 +15932,7 @@
       <c r="X66" s="6"/>
       <c r="Y66" s="7"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -15925,7 +15959,7 @@
       <c r="X67" s="6"/>
       <c r="Y67" s="7"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -15952,7 +15986,7 @@
       <c r="X68" s="6"/>
       <c r="Y68" s="7"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -15979,7 +16013,7 @@
       <c r="X69" s="6"/>
       <c r="Y69" s="7"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -16006,7 +16040,7 @@
       <c r="X70" s="6"/>
       <c r="Y70" s="7"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -16033,7 +16067,7 @@
       <c r="X71" s="6"/>
       <c r="Y71" s="7"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -16060,7 +16094,7 @@
       <c r="X72" s="6"/>
       <c r="Y72" s="7"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -16087,7 +16121,7 @@
       <c r="X73" s="6"/>
       <c r="Y73" s="7"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -16114,7 +16148,7 @@
       <c r="X74" s="6"/>
       <c r="Y74" s="7"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -16141,7 +16175,7 @@
       <c r="X75" s="6"/>
       <c r="Y75" s="7"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -16168,7 +16202,7 @@
       <c r="X76" s="6"/>
       <c r="Y76" s="7"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -16195,7 +16229,7 @@
       <c r="X77" s="6"/>
       <c r="Y77" s="7"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -16222,7 +16256,7 @@
       <c r="X78" s="6"/>
       <c r="Y78" s="7"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -16249,7 +16283,7 @@
       <c r="X79" s="6"/>
       <c r="Y79" s="7"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -16276,7 +16310,7 @@
       <c r="X80" s="6"/>
       <c r="Y80" s="7"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -16303,7 +16337,7 @@
       <c r="X81" s="6"/>
       <c r="Y81" s="7"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -16330,7 +16364,7 @@
       <c r="X82" s="6"/>
       <c r="Y82" s="7"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -16357,7 +16391,7 @@
       <c r="X83" s="6"/>
       <c r="Y83" s="7"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -16384,7 +16418,7 @@
       <c r="X84" s="6"/>
       <c r="Y84" s="7"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -16411,7 +16445,7 @@
       <c r="X85" s="6"/>
       <c r="Y85" s="7"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -16438,7 +16472,7 @@
       <c r="X86" s="6"/>
       <c r="Y86" s="7"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -16465,7 +16499,7 @@
       <c r="X87" s="6"/>
       <c r="Y87" s="7"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -16492,7 +16526,7 @@
       <c r="X88" s="6"/>
       <c r="Y88" s="7"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -16519,7 +16553,7 @@
       <c r="X89" s="6"/>
       <c r="Y89" s="7"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -16546,7 +16580,7 @@
       <c r="X90" s="6"/>
       <c r="Y90" s="7"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -16573,7 +16607,7 @@
       <c r="X91" s="6"/>
       <c r="Y91" s="7"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -16600,7 +16634,7 @@
       <c r="X92" s="6"/>
       <c r="Y92" s="7"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -16627,7 +16661,7 @@
       <c r="X93" s="6"/>
       <c r="Y93" s="7"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -16654,7 +16688,7 @@
       <c r="X94" s="6"/>
       <c r="Y94" s="7"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -16681,7 +16715,7 @@
       <c r="X95" s="6"/>
       <c r="Y95" s="7"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -16708,7 +16742,7 @@
       <c r="X96" s="6"/>
       <c r="Y96" s="7"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -16735,7 +16769,7 @@
       <c r="X97" s="6"/>
       <c r="Y97" s="7"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -16762,7 +16796,7 @@
       <c r="X98" s="6"/>
       <c r="Y98" s="7"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -16789,7 +16823,7 @@
       <c r="X99" s="6"/>
       <c r="Y99" s="7"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -16816,7 +16850,7 @@
       <c r="X100" s="6"/>
       <c r="Y100" s="7"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -16843,7 +16877,7 @@
       <c r="X101" s="6"/>
       <c r="Y101" s="7"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -16870,7 +16904,7 @@
       <c r="X102" s="6"/>
       <c r="Y102" s="7"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -16897,7 +16931,7 @@
       <c r="X103" s="6"/>
       <c r="Y103" s="7"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -16935,16 +16969,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" customWidth="1"/>
-    <col min="3" max="3" width="1.140625" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" customWidth="1"/>
-    <col min="5" max="6" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="54.26953125" customWidth="1"/>
+    <col min="3" max="3" width="1.1796875" customWidth="1"/>
+    <col min="4" max="4" width="56.54296875" customWidth="1"/>
+    <col min="5" max="6" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="78" t="s">
         <v>94</v>
       </c>
@@ -16954,7 +16988,7 @@
       <c r="E1" s="34"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="32"/>
       <c r="C2" s="52"/>
@@ -16962,7 +16996,7 @@
       <c r="E2" s="34"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
         <v>103</v>
       </c>
@@ -16976,7 +17010,7 @@
       <c r="E3" s="34"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
         <v>109</v>
       </c>
@@ -16990,7 +17024,7 @@
       <c r="E4" s="34"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>112</v>
       </c>
@@ -17004,7 +17038,7 @@
       <c r="E5" s="34"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
@@ -17012,7 +17046,7 @@
       <c r="E6" s="34"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -17020,7 +17054,7 @@
       <c r="E7" s="19"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -17028,7 +17062,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -17036,7 +17070,7 @@
       <c r="E9" s="19"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -17044,7 +17078,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -17052,7 +17086,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -17060,7 +17094,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -17068,7 +17102,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -17076,7 +17110,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -17084,7 +17118,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -17092,7 +17126,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -17100,7 +17134,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -17108,7 +17142,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -17116,7 +17150,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -17141,17 +17175,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="91.28515625" customWidth="1"/>
-    <col min="4" max="4" width="2.28515625" customWidth="1"/>
-    <col min="5" max="5" width="1560.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" customWidth="1"/>
+    <col min="3" max="3" width="91.26953125" customWidth="1"/>
+    <col min="4" max="4" width="2.26953125" customWidth="1"/>
+    <col min="5" max="5" width="1560.54296875" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="76" t="s">
         <v>132</v>
@@ -17161,7 +17195,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -17169,7 +17203,7 @@
       <c r="E2" s="13"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="81" t="s">
         <v>137</v>
@@ -17179,7 +17213,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
       <c r="B4" s="65" t="s">
         <v>141</v>
@@ -17191,7 +17225,7 @@
       <c r="E4" s="68"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
       <c r="B5" s="69" t="s">
         <v>145</v>
@@ -17203,7 +17237,7 @@
       <c r="E5" s="68"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="64"/>
       <c r="B6" s="69" t="s">
         <v>149</v>
@@ -17215,7 +17249,7 @@
       <c r="E6" s="68"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="64"/>
       <c r="B7" s="71"/>
       <c r="C7" s="72"/>
@@ -17223,7 +17257,7 @@
       <c r="E7" s="68"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
       <c r="B8" s="73"/>
       <c r="C8" s="73"/>
@@ -17231,7 +17265,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="75"/>
       <c r="C9" s="75"/>
@@ -17239,7 +17273,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -17247,7 +17281,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -17255,7 +17289,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -17263,7 +17297,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -17271,7 +17305,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -17279,7 +17313,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -17287,7 +17321,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -17295,7 +17329,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -17303,7 +17337,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -17311,7 +17345,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -17319,7 +17353,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -17342,17 +17376,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="21" width="5.5703125" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" customWidth="1"/>
-    <col min="25" max="25" width="9.28515625" customWidth="1"/>
+    <col min="1" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="21" width="5.54296875" customWidth="1"/>
+    <col min="22" max="22" width="6.54296875" customWidth="1"/>
+    <col min="23" max="23" width="7.7265625" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" customWidth="1"/>
+    <col min="25" max="25" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>161</v>
       </c>
@@ -17383,7 +17417,7 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="7"/>
     </row>
-    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -17410,7 +17444,7 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="7"/>
     </row>
-    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -17437,7 +17471,7 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="7"/>
     </row>
-    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -17464,7 +17498,7 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="7"/>
     </row>
-    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -17491,7 +17525,7 @@
       <c r="X5" s="6"/>
       <c r="Y5" s="7"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -17518,7 +17552,7 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="7"/>
     </row>
-    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -17545,7 +17579,7 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="7"/>
     </row>
-    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -17572,7 +17606,7 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="7"/>
     </row>
-    <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -17599,7 +17633,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -17626,7 +17660,7 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -17653,7 +17687,7 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="7"/>
     </row>
-    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -17680,7 +17714,7 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="7"/>
     </row>
-    <row r="13" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -17707,7 +17741,7 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="7"/>
     </row>
-    <row r="14" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -17734,7 +17768,7 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="7"/>
     </row>
-    <row r="15" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -17761,7 +17795,7 @@
       <c r="X15" s="6"/>
       <c r="Y15" s="7"/>
     </row>
-    <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -17788,7 +17822,7 @@
       <c r="X16" s="6"/>
       <c r="Y16" s="7"/>
     </row>
-    <row r="17" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -17815,7 +17849,7 @@
       <c r="X17" s="6"/>
       <c r="Y17" s="7"/>
     </row>
-    <row r="18" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -17842,7 +17876,7 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="7"/>
     </row>
-    <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -17869,7 +17903,7 @@
       <c r="X19" s="6"/>
       <c r="Y19" s="7"/>
     </row>
-    <row r="20" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -17896,7 +17930,7 @@
       <c r="X20" s="6"/>
       <c r="Y20" s="7"/>
     </row>
-    <row r="21" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -17923,7 +17957,7 @@
       <c r="X21" s="6"/>
       <c r="Y21" s="7"/>
     </row>
-    <row r="22" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -17950,7 +17984,7 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="7"/>
     </row>
-    <row r="23" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -17977,7 +18011,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="7"/>
     </row>
-    <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -18004,7 +18038,7 @@
       <c r="X24" s="6"/>
       <c r="Y24" s="7"/>
     </row>
-    <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -18031,7 +18065,7 @@
       <c r="X25" s="6"/>
       <c r="Y25" s="7"/>
     </row>
-    <row r="26" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -18058,7 +18092,7 @@
       <c r="X26" s="6"/>
       <c r="Y26" s="7"/>
     </row>
-    <row r="27" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -18085,7 +18119,7 @@
       <c r="X27" s="6"/>
       <c r="Y27" s="7"/>
     </row>
-    <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -18112,7 +18146,7 @@
       <c r="X28" s="6"/>
       <c r="Y28" s="7"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -18139,7 +18173,7 @@
       <c r="X29" s="6"/>
       <c r="Y29" s="7"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -18166,7 +18200,7 @@
       <c r="X30" s="6"/>
       <c r="Y30" s="7"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -18193,7 +18227,7 @@
       <c r="X31" s="6"/>
       <c r="Y31" s="7"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -18220,7 +18254,7 @@
       <c r="X32" s="6"/>
       <c r="Y32" s="7"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -18247,7 +18281,7 @@
       <c r="X33" s="6"/>
       <c r="Y33" s="7"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -18274,7 +18308,7 @@
       <c r="X34" s="6"/>
       <c r="Y34" s="7"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -18301,7 +18335,7 @@
       <c r="X35" s="6"/>
       <c r="Y35" s="7"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -18328,7 +18362,7 @@
       <c r="X36" s="6"/>
       <c r="Y36" s="7"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -18355,7 +18389,7 @@
       <c r="X37" s="6"/>
       <c r="Y37" s="7"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -18382,7 +18416,7 @@
       <c r="X38" s="6"/>
       <c r="Y38" s="7"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -18409,7 +18443,7 @@
       <c r="X39" s="6"/>
       <c r="Y39" s="7"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -18436,7 +18470,7 @@
       <c r="X40" s="6"/>
       <c r="Y40" s="7"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -18463,7 +18497,7 @@
       <c r="X41" s="6"/>
       <c r="Y41" s="7"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -18490,7 +18524,7 @@
       <c r="X42" s="6"/>
       <c r="Y42" s="7"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -18517,7 +18551,7 @@
       <c r="X43" s="6"/>
       <c r="Y43" s="7"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -18544,7 +18578,7 @@
       <c r="X44" s="6"/>
       <c r="Y44" s="7"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -18571,7 +18605,7 @@
       <c r="X45" s="6"/>
       <c r="Y45" s="7"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -18598,7 +18632,7 @@
       <c r="X46" s="6"/>
       <c r="Y46" s="7"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -18625,7 +18659,7 @@
       <c r="X47" s="6"/>
       <c r="Y47" s="7"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -18652,7 +18686,7 @@
       <c r="X48" s="6"/>
       <c r="Y48" s="7"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -18679,7 +18713,7 @@
       <c r="X49" s="6"/>
       <c r="Y49" s="7"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -18706,7 +18740,7 @@
       <c r="X50" s="6"/>
       <c r="Y50" s="7"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -18733,7 +18767,7 @@
       <c r="X51" s="6"/>
       <c r="Y51" s="7"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -18760,7 +18794,7 @@
       <c r="X52" s="6"/>
       <c r="Y52" s="7"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -18787,7 +18821,7 @@
       <c r="X53" s="6"/>
       <c r="Y53" s="7"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -18814,7 +18848,7 @@
       <c r="X54" s="6"/>
       <c r="Y54" s="7"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -18841,7 +18875,7 @@
       <c r="X55" s="6"/>
       <c r="Y55" s="7"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -18868,7 +18902,7 @@
       <c r="X56" s="6"/>
       <c r="Y56" s="7"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -18895,7 +18929,7 @@
       <c r="X57" s="6"/>
       <c r="Y57" s="7"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -18922,7 +18956,7 @@
       <c r="X58" s="6"/>
       <c r="Y58" s="7"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -18949,7 +18983,7 @@
       <c r="X59" s="6"/>
       <c r="Y59" s="7"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -18976,7 +19010,7 @@
       <c r="X60" s="6"/>
       <c r="Y60" s="7"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -19003,7 +19037,7 @@
       <c r="X61" s="6"/>
       <c r="Y61" s="7"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -19030,7 +19064,7 @@
       <c r="X62" s="6"/>
       <c r="Y62" s="7"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -19057,7 +19091,7 @@
       <c r="X63" s="6"/>
       <c r="Y63" s="7"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -19084,7 +19118,7 @@
       <c r="X64" s="6"/>
       <c r="Y64" s="7"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -19111,7 +19145,7 @@
       <c r="X65" s="6"/>
       <c r="Y65" s="7"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -19138,7 +19172,7 @@
       <c r="X66" s="6"/>
       <c r="Y66" s="7"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -19165,7 +19199,7 @@
       <c r="X67" s="6"/>
       <c r="Y67" s="7"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -19192,7 +19226,7 @@
       <c r="X68" s="6"/>
       <c r="Y68" s="7"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -19219,7 +19253,7 @@
       <c r="X69" s="6"/>
       <c r="Y69" s="7"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -19246,7 +19280,7 @@
       <c r="X70" s="6"/>
       <c r="Y70" s="7"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -19273,7 +19307,7 @@
       <c r="X71" s="6"/>
       <c r="Y71" s="7"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -19300,7 +19334,7 @@
       <c r="X72" s="6"/>
       <c r="Y72" s="7"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -19327,7 +19361,7 @@
       <c r="X73" s="6"/>
       <c r="Y73" s="7"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -19354,7 +19388,7 @@
       <c r="X74" s="6"/>
       <c r="Y74" s="7"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -19381,7 +19415,7 @@
       <c r="X75" s="6"/>
       <c r="Y75" s="7"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -19408,7 +19442,7 @@
       <c r="X76" s="6"/>
       <c r="Y76" s="7"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -19435,7 +19469,7 @@
       <c r="X77" s="6"/>
       <c r="Y77" s="7"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -19462,7 +19496,7 @@
       <c r="X78" s="6"/>
       <c r="Y78" s="7"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -19489,7 +19523,7 @@
       <c r="X79" s="6"/>
       <c r="Y79" s="7"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -19516,7 +19550,7 @@
       <c r="X80" s="6"/>
       <c r="Y80" s="7"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -19543,7 +19577,7 @@
       <c r="X81" s="6"/>
       <c r="Y81" s="7"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -19570,7 +19604,7 @@
       <c r="X82" s="6"/>
       <c r="Y82" s="7"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -19597,7 +19631,7 @@
       <c r="X83" s="6"/>
       <c r="Y83" s="7"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -19624,7 +19658,7 @@
       <c r="X84" s="6"/>
       <c r="Y84" s="7"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -19651,7 +19685,7 @@
       <c r="X85" s="6"/>
       <c r="Y85" s="7"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -19678,7 +19712,7 @@
       <c r="X86" s="6"/>
       <c r="Y86" s="7"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -19705,7 +19739,7 @@
       <c r="X87" s="6"/>
       <c r="Y87" s="7"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -19732,7 +19766,7 @@
       <c r="X88" s="6"/>
       <c r="Y88" s="7"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -19759,7 +19793,7 @@
       <c r="X89" s="6"/>
       <c r="Y89" s="7"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -19786,7 +19820,7 @@
       <c r="X90" s="6"/>
       <c r="Y90" s="7"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -19813,7 +19847,7 @@
       <c r="X91" s="6"/>
       <c r="Y91" s="7"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -19840,7 +19874,7 @@
       <c r="X92" s="6"/>
       <c r="Y92" s="7"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -19867,7 +19901,7 @@
       <c r="X93" s="6"/>
       <c r="Y93" s="7"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -19894,7 +19928,7 @@
       <c r="X94" s="6"/>
       <c r="Y94" s="7"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -19921,7 +19955,7 @@
       <c r="X95" s="6"/>
       <c r="Y95" s="7"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -19948,7 +19982,7 @@
       <c r="X96" s="6"/>
       <c r="Y96" s="7"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -19975,7 +20009,7 @@
       <c r="X97" s="6"/>
       <c r="Y97" s="7"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -20002,7 +20036,7 @@
       <c r="X98" s="6"/>
       <c r="Y98" s="7"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -20029,7 +20063,7 @@
       <c r="X99" s="6"/>
       <c r="Y99" s="7"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -20056,7 +20090,7 @@
       <c r="X100" s="6"/>
       <c r="Y100" s="7"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -20083,7 +20117,7 @@
       <c r="X101" s="6"/>
       <c r="Y101" s="7"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -20110,7 +20144,7 @@
       <c r="X102" s="6"/>
       <c r="Y102" s="7"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -20137,7 +20171,7 @@
       <c r="X103" s="6"/>
       <c r="Y103" s="7"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -20164,7 +20198,7 @@
       <c r="X104" s="6"/>
       <c r="Y104" s="7"/>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>

--- a/Projeto-3/government.xlsx
+++ b/Projeto-3/government.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Documents\GitHub\CD_projeto3\Projeto-3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="Download" sheetId="5" r:id="rId5"/>
     <sheet name="v" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -962,7 +957,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2110,7 +2105,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2120,17 +2115,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="2" max="17" width="6.81640625" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="17" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>309</v>
       </c>
@@ -2167,11 +2162,11 @@
       <c r="L1" s="5">
         <v>2005</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="5">
+        <v>2006</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="N1" s="5">
-        <v>2007</v>
       </c>
       <c r="O1" s="5">
         <v>2008</v>
@@ -2183,7 +2178,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -2204,7 +2199,7 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -2243,7 +2238,7 @@
         <v>4.3904075899999997</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -2264,7 +2259,7 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -2317,7 +2312,7 @@
         <v>94.023612639999996</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -2370,7 +2365,7 @@
         <v>138.84092275</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -2391,7 +2386,7 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -2444,7 +2439,7 @@
         <v>2172.37916163</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -2497,7 +2492,7 @@
         <v>101.5915272</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -2518,7 +2513,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
@@ -2571,7 +2566,7 @@
         <v>489.45570042999998</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -2624,7 +2619,7 @@
         <v>405.05887531000002</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
@@ -2677,7 +2672,7 @@
         <v>54.238760239999998</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
@@ -2698,7 +2693,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
@@ -2751,7 +2746,7 @@
         <v>3246.3658119800002</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>23</v>
       </c>
@@ -2804,7 +2799,7 @@
         <v>3843.4238953899999</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>26</v>
       </c>
@@ -2857,7 +2852,7 @@
         <v>67.262312089999995</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>27</v>
       </c>
@@ -2910,7 +2905,7 @@
         <v>791.11451337000005</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
@@ -2963,7 +2958,7 @@
         <v>633.62770191000004</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -3016,7 +3011,7 @@
         <v>58.005544620000002</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>31</v>
       </c>
@@ -3069,7 +3064,7 @@
         <v>652.30749760000003</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>32</v>
       </c>
@@ -3122,7 +3117,7 @@
         <v>248.31391694000001</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>33</v>
       </c>
@@ -3175,7 +3170,7 @@
         <v>3451.9022217299998</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
@@ -3228,7 +3223,7 @@
         <v>149.71976753999999</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>36</v>
       </c>
@@ -3281,7 +3276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>37</v>
       </c>
@@ -3302,7 +3297,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>39</v>
       </c>
@@ -3355,7 +3350,7 @@
         <v>94.197706960000005</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
@@ -3408,7 +3403,7 @@
         <v>60.653492010000001</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>43</v>
       </c>
@@ -3461,7 +3456,7 @@
         <v>306.52684274000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>44</v>
       </c>
@@ -3514,7 +3509,7 @@
         <v>445.76072305999998</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>45</v>
       </c>
@@ -3567,7 +3562,7 @@
         <v>465.67404002000001</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>46</v>
       </c>
@@ -3588,7 +3583,7 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
     </row>
-    <row r="33" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>48</v>
       </c>
@@ -3641,7 +3636,7 @@
         <v>748.32260895000002</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>49</v>
       </c>
@@ -3694,7 +3689,7 @@
         <v>236.9744713</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>50</v>
       </c>
@@ -3747,7 +3742,7 @@
         <v>20.27447781</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>51</v>
       </c>
@@ -3800,7 +3795,7 @@
         <v>7.9094023800000004</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>53</v>
       </c>
@@ -3853,7 +3848,7 @@
         <v>16.821390109999999</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>55</v>
       </c>
@@ -3906,7 +3901,7 @@
         <v>18.17108644</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>57</v>
       </c>
@@ -3959,7 +3954,7 @@
         <v>3681.4261347800002</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>58</v>
       </c>
@@ -4012,7 +4007,7 @@
         <v>116.0392246</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>59</v>
       </c>
@@ -4033,7 +4028,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>60</v>
       </c>
@@ -4086,7 +4081,7 @@
         <v>6.4365166</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>61</v>
       </c>
@@ -4139,7 +4134,7 @@
         <v>7.65331926</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>64</v>
       </c>
@@ -4160,7 +4155,7 @@
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
     </row>
-    <row r="45" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>65</v>
       </c>
@@ -4213,7 +4208,7 @@
         <v>456.40623165</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>66</v>
       </c>
@@ -4266,7 +4261,7 @@
         <v>118.38841635999999</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>69</v>
       </c>
@@ -4287,7 +4282,7 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>70</v>
       </c>
@@ -4308,7 +4303,7 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
     </row>
-    <row r="49" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>71</v>
       </c>
@@ -4361,7 +4356,7 @@
         <v>343.24719239000001</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>72</v>
       </c>
@@ -4414,7 +4409,7 @@
         <v>22.33183442</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>5</v>
       </c>
@@ -4467,7 +4462,7 @@
         <v>6.6987602700000002</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>78</v>
       </c>
@@ -4520,7 +4515,7 @@
         <v>33.788124269999997</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>79</v>
       </c>
@@ -4573,7 +4568,7 @@
         <v>505.53890813999999</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>80</v>
       </c>
@@ -4626,7 +4621,7 @@
         <v>552.60030071999995</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>81</v>
       </c>
@@ -4679,7 +4674,7 @@
         <v>12.89902835</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>82</v>
       </c>
@@ -4732,7 +4727,7 @@
         <v>905.3148175</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>83</v>
       </c>
@@ -4785,7 +4780,7 @@
         <v>555.26596690999997</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>84</v>
       </c>
@@ -4838,7 +4833,7 @@
         <v>707.49492013999998</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>85</v>
       </c>
@@ -4891,7 +4886,7 @@
         <v>1238.4109685200001</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>86</v>
       </c>
@@ -4912,7 +4907,7 @@
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>87</v>
       </c>
@@ -4965,7 +4960,7 @@
         <v>5465.08605214</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>88</v>
       </c>
@@ -5018,7 +5013,7 @@
         <v>59.843274819999998</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>89</v>
       </c>
@@ -5071,7 +5066,7 @@
         <v>291.99115139000003</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>90</v>
       </c>
@@ -5124,7 +5119,7 @@
         <v>140.17783079</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>91</v>
       </c>
@@ -5145,7 +5140,7 @@
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>92</v>
       </c>
@@ -5198,7 +5193,7 @@
         <v>122.13839462</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>93</v>
       </c>
@@ -5251,7 +5246,7 @@
         <v>46.078980090000002</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>95</v>
       </c>
@@ -5304,7 +5299,7 @@
         <v>146.10060111000001</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>96</v>
       </c>
@@ -5357,7 +5352,7 @@
         <v>680.49435968</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>97</v>
       </c>
@@ -5410,7 +5405,7 @@
         <v>5.7416796400000001</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>98</v>
       </c>
@@ -5431,7 +5426,7 @@
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
     </row>
-    <row r="72" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>99</v>
       </c>
@@ -5484,7 +5479,7 @@
         <v>671.37168727999995</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>100</v>
       </c>
@@ -5537,7 +5532,7 @@
         <v>8.4136979299999997</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>101</v>
       </c>
@@ -5558,7 +5553,7 @@
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
     </row>
-    <row r="75" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>102</v>
       </c>
@@ -5579,7 +5574,7 @@
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
     </row>
-    <row r="76" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>104</v>
       </c>
@@ -5632,7 +5627,7 @@
         <v>108.19264259000001</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>105</v>
       </c>
@@ -5685,7 +5680,7 @@
         <v>2990.4126385499999</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>107</v>
       </c>
@@ -5738,7 +5733,7 @@
         <v>3651.8490060099998</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>108</v>
       </c>
@@ -5759,7 +5754,7 @@
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
     </row>
-    <row r="80" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>110</v>
       </c>
@@ -5780,7 +5775,7 @@
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
     </row>
-    <row r="81" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>114</v>
       </c>
@@ -5833,7 +5828,7 @@
         <v>159.87577109</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>115</v>
       </c>
@@ -5886,7 +5881,7 @@
         <v>13.283301399999999</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>116</v>
       </c>
@@ -5939,7 +5934,7 @@
         <v>64.200040259999994</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>118</v>
       </c>
@@ -5992,7 +5987,7 @@
         <v>3598.2982919400001</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>119</v>
       </c>
@@ -6045,7 +6040,7 @@
         <v>39.875349200000002</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>120</v>
       </c>
@@ -6066,7 +6061,7 @@
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
     </row>
-    <row r="87" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>121</v>
       </c>
@@ -6119,7 +6114,7 @@
         <v>1621.20531781</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>122</v>
       </c>
@@ -6140,7 +6135,7 @@
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
     </row>
-    <row r="89" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>123</v>
       </c>
@@ -6193,7 +6188,7 @@
         <v>197.51370098000001</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>124</v>
       </c>
@@ -6214,7 +6209,7 @@
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
     </row>
-    <row r="91" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>125</v>
       </c>
@@ -6235,7 +6230,7 @@
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
     </row>
-    <row r="92" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>126</v>
       </c>
@@ -6288,7 +6283,7 @@
         <v>68.652654639999994</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>127</v>
       </c>
@@ -6309,7 +6304,7 @@
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
     </row>
-    <row r="94" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>128</v>
       </c>
@@ -6362,7 +6357,7 @@
         <v>2.5971110999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>129</v>
       </c>
@@ -6415,7 +6410,7 @@
         <v>4.7015105899999998</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>130</v>
       </c>
@@ -6468,7 +6463,7 @@
         <v>135.59788621000001</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>131</v>
       </c>
@@ -6521,7 +6516,7 @@
         <v>9.9534509399999997</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>133</v>
       </c>
@@ -6542,7 +6537,7 @@
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
     </row>
-    <row r="99" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>134</v>
       </c>
@@ -6593,7 +6588,7 @@
       </c>
       <c r="Q99" s="7"/>
     </row>
-    <row r="100" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>135</v>
       </c>
@@ -6614,7 +6609,7 @@
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
     </row>
-    <row r="101" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>136</v>
       </c>
@@ -6667,7 +6662,7 @@
         <v>653.76160895999999</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>138</v>
       </c>
@@ -6720,7 +6715,7 @@
         <v>3003.52769674</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>139</v>
       </c>
@@ -6773,7 +6768,7 @@
         <v>15.82486231</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>140</v>
       </c>
@@ -6826,7 +6821,7 @@
         <v>37.74177117</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>142</v>
       </c>
@@ -6879,7 +6874,7 @@
         <v>127.18679950000001</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>18</v>
       </c>
@@ -6930,7 +6925,7 @@
         <v>200.31894008</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>144</v>
       </c>
@@ -6983,7 +6978,7 @@
         <v>2933.4000938899999</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>146</v>
       </c>
@@ -7004,7 +6999,7 @@
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
     </row>
-    <row r="109" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>148</v>
       </c>
@@ -7057,7 +7052,7 @@
         <v>1316.98034953</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>151</v>
       </c>
@@ -7110,7 +7105,7 @@
         <v>2520.7428686500002</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>152</v>
       </c>
@@ -7163,7 +7158,7 @@
         <v>132.31077661</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>153</v>
       </c>
@@ -7216,7 +7211,7 @@
         <v>3355.0700976100002</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>154</v>
       </c>
@@ -7237,7 +7232,7 @@
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
     </row>
-    <row r="114" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>155</v>
       </c>
@@ -7290,7 +7285,7 @@
         <v>241.83869529</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>156</v>
       </c>
@@ -7343,7 +7338,7 @@
         <v>233.45774001000001</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>157</v>
       </c>
@@ -7396,7 +7391,7 @@
         <v>16.32270669</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>158</v>
       </c>
@@ -7449,7 +7444,7 @@
         <v>131.41312937000001</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>159</v>
       </c>
@@ -7470,7 +7465,7 @@
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
     </row>
-    <row r="119" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>160</v>
       </c>
@@ -7521,7 +7516,7 @@
         <v>848.43616544999998</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>163</v>
       </c>
@@ -7542,7 +7537,7 @@
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
     </row>
-    <row r="121" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>164</v>
       </c>
@@ -7563,7 +7558,7 @@
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
     </row>
-    <row r="122" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>165</v>
       </c>
@@ -7616,7 +7611,7 @@
         <v>983.14059780000002</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>166</v>
       </c>
@@ -7669,7 +7664,7 @@
         <v>30.04684327</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>167</v>
       </c>
@@ -7722,7 +7717,7 @@
         <v>15.367497330000001</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>168</v>
       </c>
@@ -7775,7 +7770,7 @@
         <v>438.74289212999997</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>169</v>
       </c>
@@ -7828,7 +7823,7 @@
         <v>254.95531389000001</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>170</v>
       </c>
@@ -7881,7 +7876,7 @@
         <v>83.000869170000001</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>171</v>
       </c>
@@ -7928,7 +7923,7 @@
         <v>9.4872497599999992</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>172</v>
       </c>
@@ -7981,7 +7976,7 @@
         <v>332.69296609000003</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>173</v>
       </c>
@@ -8002,7 +7997,7 @@
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
     </row>
-    <row r="131" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>174</v>
       </c>
@@ -8055,7 +8050,7 @@
         <v>574.23778454000001</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>175</v>
       </c>
@@ -8108,7 +8103,7 @@
         <v>6905.5303441200003</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>176</v>
       </c>
@@ -8129,7 +8124,7 @@
       <c r="P133" s="7"/>
       <c r="Q133" s="7"/>
     </row>
-    <row r="134" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>177</v>
       </c>
@@ -8182,7 +8177,7 @@
         <v>202.00997115000001</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>178</v>
       </c>
@@ -8235,7 +8230,7 @@
         <v>9.5850381200000001</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>179</v>
       </c>
@@ -8288,7 +8283,7 @@
         <v>15.421249319999999</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>180</v>
       </c>
@@ -8341,7 +8336,7 @@
         <v>204.24464946000001</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>181</v>
       </c>
@@ -8394,7 +8389,7 @@
         <v>231.37008657000001</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>182</v>
       </c>
@@ -8447,7 +8442,7 @@
         <v>14.74603617</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>183</v>
       </c>
@@ -8500,7 +8495,7 @@
         <v>1111.1156390599999</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>184</v>
       </c>
@@ -8553,7 +8548,7 @@
         <v>433.13185184000002</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>185</v>
       </c>
@@ -8574,7 +8569,7 @@
       <c r="P142" s="7"/>
       <c r="Q142" s="7"/>
     </row>
-    <row r="143" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>186</v>
       </c>
@@ -8627,7 +8622,7 @@
         <v>22.668541099999999</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
         <v>187</v>
       </c>
@@ -8680,7 +8675,7 @@
         <v>187.22084082000001</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
         <v>188</v>
       </c>
@@ -8701,7 +8696,7 @@
       <c r="P145" s="7"/>
       <c r="Q145" s="7"/>
     </row>
-    <row r="146" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
         <v>189</v>
       </c>
@@ -8752,7 +8747,7 @@
       </c>
       <c r="Q146" s="7"/>
     </row>
-    <row r="147" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
         <v>190</v>
       </c>
@@ -8805,7 +8800,7 @@
         <v>333.82284088</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
         <v>191</v>
       </c>
@@ -8858,7 +8853,7 @@
         <v>87.198917609999995</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
         <v>192</v>
       </c>
@@ -8911,7 +8906,7 @@
         <v>5569.6647540000004</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
         <v>193</v>
       </c>
@@ -8964,7 +8959,7 @@
         <v>66.169247400000003</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
         <v>194</v>
       </c>
@@ -9017,7 +9012,7 @@
         <v>388.48505378999999</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
         <v>195</v>
       </c>
@@ -9038,7 +9033,7 @@
       <c r="P152" s="7"/>
       <c r="Q152" s="7"/>
     </row>
-    <row r="153" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
         <v>196</v>
       </c>
@@ -9091,7 +9086,7 @@
         <v>56.156513689999997</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
         <v>197</v>
       </c>
@@ -9144,7 +9139,7 @@
         <v>15.30809273</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
         <v>24</v>
       </c>
@@ -9197,7 +9192,7 @@
         <v>2.08765066</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
         <v>198</v>
       </c>
@@ -9250,7 +9245,7 @@
         <v>210.94576663999999</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
         <v>199</v>
       </c>
@@ -9303,7 +9298,7 @@
         <v>488.63786728000002</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
         <v>200</v>
       </c>
@@ -9356,7 +9351,7 @@
         <v>9.8985135</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
         <v>201</v>
       </c>
@@ -9409,7 +9404,7 @@
         <v>4431.1184121599999</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
         <v>202</v>
       </c>
@@ -9430,7 +9425,7 @@
       <c r="P160" s="7"/>
       <c r="Q160" s="7"/>
     </row>
-    <row r="161" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
         <v>203</v>
       </c>
@@ -9451,7 +9446,7 @@
       <c r="P161" s="7"/>
       <c r="Q161" s="7"/>
     </row>
-    <row r="162" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
         <v>204</v>
       </c>
@@ -9504,7 +9499,7 @@
         <v>2728.4954333999999</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="8" t="s">
         <v>205</v>
       </c>
@@ -9525,7 +9520,7 @@
       <c r="P163" s="7"/>
       <c r="Q163" s="7"/>
     </row>
-    <row r="164" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
         <v>206</v>
       </c>
@@ -9576,7 +9571,7 @@
       </c>
       <c r="Q164" s="7"/>
     </row>
-    <row r="165" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="s">
         <v>207</v>
       </c>
@@ -9629,7 +9624,7 @@
         <v>9.30410717</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
         <v>208</v>
       </c>
@@ -9682,7 +9677,7 @@
         <v>23.789390260000001</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="8" t="s">
         <v>209</v>
       </c>
@@ -9735,7 +9730,7 @@
         <v>2302.0864651100001</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="s">
         <v>210</v>
       </c>
@@ -9756,7 +9751,7 @@
       <c r="P168" s="7"/>
       <c r="Q168" s="7"/>
     </row>
-    <row r="169" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="s">
         <v>211</v>
       </c>
@@ -9777,7 +9772,7 @@
       <c r="P169" s="7"/>
       <c r="Q169" s="7"/>
     </row>
-    <row r="170" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
         <v>212</v>
       </c>
@@ -9798,7 +9793,7 @@
       <c r="P170" s="7"/>
       <c r="Q170" s="7"/>
     </row>
-    <row r="171" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
         <v>213</v>
       </c>
@@ -9851,7 +9846,7 @@
         <v>6788.3887561399997</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
         <v>214</v>
       </c>
@@ -9904,7 +9899,7 @@
         <v>460.21087194</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
         <v>215</v>
       </c>
@@ -9957,7 +9952,7 @@
         <v>8.3799678899999996</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
         <v>216</v>
       </c>
@@ -10010,7 +10005,7 @@
         <v>657.00835161999998</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="8" t="s">
         <v>217</v>
       </c>
@@ -10063,7 +10058,7 @@
         <v>462.91904191999998</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="s">
         <v>218</v>
       </c>
@@ -10116,7 +10111,7 @@
         <v>35.35712942</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="s">
         <v>219</v>
       </c>
@@ -10169,7 +10164,7 @@
         <v>59.297241309999997</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="s">
         <v>220</v>
       </c>
@@ -10222,7 +10217,7 @@
         <v>145.19148447000001</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
         <v>221</v>
       </c>
@@ -10275,7 +10270,7 @@
         <v>27.330583699999998</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="8" t="s">
         <v>222</v>
       </c>
@@ -10296,7 +10291,7 @@
       <c r="P180" s="7"/>
       <c r="Q180" s="7"/>
     </row>
-    <row r="181" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
         <v>223</v>
       </c>
@@ -10349,7 +10344,7 @@
         <v>666.01938308000001</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="s">
         <v>224</v>
       </c>
@@ -10402,7 +10397,7 @@
         <v>1612.7512732099999</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
         <v>225</v>
       </c>
@@ -10423,7 +10418,7 @@
       <c r="P183" s="7"/>
       <c r="Q183" s="7"/>
     </row>
-    <row r="184" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
         <v>226</v>
       </c>
@@ -10476,7 +10471,7 @@
         <v>1153.07598906</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="s">
         <v>227</v>
       </c>
@@ -10497,7 +10492,7 @@
       <c r="P185" s="7"/>
       <c r="Q185" s="7"/>
     </row>
-    <row r="186" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
         <v>228</v>
       </c>
@@ -10550,7 +10545,7 @@
         <v>334.31746115999999</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
         <v>229</v>
       </c>
@@ -10603,7 +10598,7 @@
         <v>326.09202964000002</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="s">
         <v>230</v>
       </c>
@@ -10656,7 +10651,7 @@
         <v>27.796329320000002</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="s">
         <v>231</v>
       </c>
@@ -10677,7 +10672,7 @@
       <c r="P189" s="7"/>
       <c r="Q189" s="7"/>
     </row>
-    <row r="190" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="8" t="s">
         <v>232</v>
       </c>
@@ -10698,7 +10693,7 @@
       <c r="P190" s="7"/>
       <c r="Q190" s="7"/>
     </row>
-    <row r="191" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="s">
         <v>233</v>
       </c>
@@ -10751,7 +10746,7 @@
         <v>404.98878329000001</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
         <v>234</v>
       </c>
@@ -10804,7 +10799,7 @@
         <v>281.48247400000002</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
         <v>235</v>
       </c>
@@ -10825,7 +10820,7 @@
       <c r="P193" s="7"/>
       <c r="Q193" s="7"/>
     </row>
-    <row r="194" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
         <v>236</v>
       </c>
@@ -10878,7 +10873,7 @@
         <v>240.44788754000001</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
         <v>237</v>
       </c>
@@ -10899,7 +10894,7 @@
       <c r="P195" s="7"/>
       <c r="Q195" s="7"/>
     </row>
-    <row r="196" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
         <v>238</v>
       </c>
@@ -10952,7 +10947,7 @@
         <v>178.81395950999999</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
         <v>239</v>
       </c>
@@ -11005,7 +11000,7 @@
         <v>3120.0243001600002</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="8" t="s">
         <v>240</v>
       </c>
@@ -11058,7 +11053,7 @@
         <v>34.447340769999997</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
         <v>241</v>
       </c>
@@ -11111,7 +11106,7 @@
         <v>427.22197706999998</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="s">
         <v>242</v>
       </c>
@@ -11164,7 +11159,7 @@
         <v>32.46603794</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
         <v>243</v>
       </c>
@@ -11217,7 +11212,7 @@
         <v>337.83045838999999</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="s">
         <v>244</v>
       </c>
@@ -11238,7 +11233,7 @@
       <c r="P202" s="7"/>
       <c r="Q202" s="7"/>
     </row>
-    <row r="203" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="8" t="s">
         <v>245</v>
       </c>
@@ -11259,7 +11254,7 @@
       <c r="P203" s="7"/>
       <c r="Q203" s="7"/>
     </row>
-    <row r="204" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
         <v>246</v>
       </c>
@@ -11312,7 +11307,7 @@
         <v>338.54272178000002</v>
       </c>
     </row>
-    <row r="205" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="8" t="s">
         <v>247</v>
       </c>
@@ -11365,7 +11360,7 @@
         <v>4.8169555600000002</v>
       </c>
     </row>
-    <row r="206" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="8" t="s">
         <v>248</v>
       </c>
@@ -11418,7 +11413,7 @@
         <v>629.09659420000003</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
         <v>249</v>
       </c>
@@ -11471,7 +11466,7 @@
         <v>930.29322625999998</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="8" t="s">
         <v>250</v>
       </c>
@@ -11524,7 +11519,7 @@
         <v>1586.85123335</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
         <v>251</v>
       </c>
@@ -11577,7 +11572,7 @@
         <v>99.560215889999995</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
         <v>252</v>
       </c>
@@ -11612,7 +11607,7 @@
       <c r="P210" s="7"/>
       <c r="Q210" s="7"/>
     </row>
-    <row r="211" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="8" t="s">
         <v>253</v>
       </c>
@@ -11633,7 +11628,7 @@
       <c r="P211" s="7"/>
       <c r="Q211" s="7"/>
     </row>
-    <row r="212" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="s">
         <v>254</v>
       </c>
@@ -11686,7 +11681,7 @@
         <v>286.10006465999999</v>
       </c>
     </row>
-    <row r="213" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="8" t="s">
         <v>255</v>
       </c>
@@ -11707,7 +11702,7 @@
       <c r="P213" s="7"/>
       <c r="Q213" s="7"/>
     </row>
-    <row r="214" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="8" t="s">
         <v>256</v>
       </c>
@@ -11760,7 +11755,7 @@
         <v>2099.0959122899999</v>
       </c>
     </row>
-    <row r="215" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="s">
         <v>257</v>
       </c>
@@ -11813,7 +11808,7 @@
         <v>31.305791679999999</v>
       </c>
     </row>
-    <row r="216" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="8" t="s">
         <v>258</v>
       </c>
@@ -11866,7 +11861,7 @@
         <v>25.016534329999999</v>
       </c>
     </row>
-    <row r="217" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="8" t="s">
         <v>259</v>
       </c>
@@ -11919,7 +11914,7 @@
         <v>235.35419231</v>
       </c>
     </row>
-    <row r="218" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
         <v>260</v>
       </c>
@@ -11940,7 +11935,7 @@
       <c r="P218" s="7"/>
       <c r="Q218" s="7"/>
     </row>
-    <row r="219" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
         <v>261</v>
       </c>
@@ -11993,7 +11988,7 @@
         <v>129.30581330000001</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
         <v>262</v>
       </c>
@@ -12046,7 +12041,7 @@
         <v>3820.11679392</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
         <v>263</v>
       </c>
@@ -12099,7 +12094,7 @@
         <v>4610.7746097899999</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
         <v>264</v>
       </c>
@@ -12152,7 +12147,7 @@
         <v>44.429104809999998</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
         <v>265</v>
       </c>
@@ -12173,7 +12168,7 @@
       <c r="P223" s="7"/>
       <c r="Q223" s="7"/>
     </row>
-    <row r="224" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
         <v>266</v>
       </c>
@@ -12226,7 +12221,7 @@
         <v>13.080335549999999</v>
       </c>
     </row>
-    <row r="225" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="8" t="s">
         <v>267</v>
       </c>
@@ -12279,7 +12274,7 @@
         <v>20.80846017</v>
       </c>
     </row>
-    <row r="226" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
         <v>268</v>
       </c>
@@ -12332,7 +12327,7 @@
         <v>134.43340545999999</v>
       </c>
     </row>
-    <row r="227" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
         <v>269</v>
       </c>
@@ -12385,7 +12380,7 @@
         <v>31.744422360000002</v>
       </c>
     </row>
-    <row r="228" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
         <v>270</v>
       </c>
@@ -12438,7 +12433,7 @@
         <v>17.96115138</v>
       </c>
     </row>
-    <row r="229" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
         <v>271</v>
       </c>
@@ -12459,7 +12454,7 @@
       <c r="P229" s="7"/>
       <c r="Q229" s="7"/>
     </row>
-    <row r="230" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
         <v>272</v>
       </c>
@@ -12512,7 +12507,7 @@
         <v>140.01594921</v>
       </c>
     </row>
-    <row r="231" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="8" t="s">
         <v>273</v>
       </c>
@@ -12533,7 +12528,7 @@
       <c r="P231" s="7"/>
       <c r="Q231" s="7"/>
     </row>
-    <row r="232" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
         <v>274</v>
       </c>
@@ -12586,7 +12581,7 @@
         <v>515.64324455999997</v>
       </c>
     </row>
-    <row r="233" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="8" t="s">
         <v>275</v>
       </c>
@@ -12639,7 +12634,7 @@
         <v>129.14504282999999</v>
       </c>
     </row>
-    <row r="234" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="s">
         <v>276</v>
       </c>
@@ -12692,7 +12687,7 @@
         <v>509.96374350000002</v>
       </c>
     </row>
-    <row r="235" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
         <v>277</v>
       </c>
@@ -12745,7 +12740,7 @@
         <v>62.99335327</v>
       </c>
     </row>
-    <row r="236" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
         <v>278</v>
       </c>
@@ -12766,7 +12761,7 @@
       <c r="P236" s="7"/>
       <c r="Q236" s="7"/>
     </row>
-    <row r="237" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
         <v>279</v>
       </c>
@@ -12819,7 +12814,7 @@
         <v>567.45131218999995</v>
       </c>
     </row>
-    <row r="238" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="s">
         <v>280</v>
       </c>
@@ -12872,7 +12867,7 @@
         <v>10.15830802</v>
       </c>
     </row>
-    <row r="239" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="8" t="s">
         <v>281</v>
       </c>
@@ -12925,7 +12920,7 @@
         <v>132.71233821999999</v>
       </c>
     </row>
-    <row r="240" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="s">
         <v>282</v>
       </c>
@@ -12978,7 +12973,7 @@
         <v>1078.2392533899999</v>
       </c>
     </row>
-    <row r="241" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="8" t="s">
         <v>283</v>
       </c>
@@ -13031,7 +13026,7 @@
         <v>2938.4240049</v>
       </c>
     </row>
-    <row r="242" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
         <v>284</v>
       </c>
@@ -13084,7 +13079,7 @@
         <v>4436.6070492600002</v>
       </c>
     </row>
-    <row r="243" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="8" t="s">
         <v>285</v>
       </c>
@@ -13137,7 +13132,7 @@
         <v>669.40953284</v>
       </c>
     </row>
-    <row r="244" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="s">
         <v>286</v>
       </c>
@@ -13158,7 +13153,7 @@
       <c r="P244" s="7"/>
       <c r="Q244" s="7"/>
     </row>
-    <row r="245" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="8" t="s">
         <v>287</v>
       </c>
@@ -13211,7 +13206,7 @@
         <v>39.132169830000002</v>
       </c>
     </row>
-    <row r="246" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="8" t="s">
         <v>288</v>
       </c>
@@ -13232,7 +13227,7 @@
       <c r="P246" s="7"/>
       <c r="Q246" s="7"/>
     </row>
-    <row r="247" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="8" t="s">
         <v>289</v>
       </c>
@@ -13285,7 +13280,7 @@
         <v>142.56482940000001</v>
       </c>
     </row>
-    <row r="248" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="8" t="s">
         <v>290</v>
       </c>
@@ -13338,7 +13333,7 @@
         <v>231.51860224000001</v>
       </c>
     </row>
-    <row r="249" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="8" t="s">
         <v>291</v>
       </c>
@@ -13359,7 +13354,7 @@
       <c r="P249" s="7"/>
       <c r="Q249" s="7"/>
     </row>
-    <row r="250" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="8" t="s">
         <v>292</v>
       </c>
@@ -13380,7 +13375,7 @@
       <c r="P250" s="7"/>
       <c r="Q250" s="7"/>
     </row>
-    <row r="251" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="8" t="s">
         <v>293</v>
       </c>
@@ -13401,7 +13396,7 @@
       <c r="P251" s="7"/>
       <c r="Q251" s="7"/>
     </row>
-    <row r="252" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="8" t="s">
         <v>294</v>
       </c>
@@ -13454,7 +13449,7 @@
         <v>31.359855459999999</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="8" t="s">
         <v>295</v>
       </c>
@@ -13475,7 +13470,7 @@
       <c r="P253" s="7"/>
       <c r="Q253" s="7"/>
     </row>
-    <row r="254" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="s">
         <v>296</v>
       </c>
@@ -13496,7 +13491,7 @@
       <c r="P254" s="7"/>
       <c r="Q254" s="7"/>
     </row>
-    <row r="255" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="8" t="s">
         <v>297</v>
       </c>
@@ -13517,7 +13512,7 @@
       <c r="P255" s="7"/>
       <c r="Q255" s="7"/>
     </row>
-    <row r="256" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="8" t="s">
         <v>298</v>
       </c>
@@ -13570,7 +13565,7 @@
         <v>15.269639939999999</v>
       </c>
     </row>
-    <row r="257" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="8" t="s">
         <v>299</v>
       </c>
@@ -13591,7 +13586,7 @@
       <c r="P257" s="7"/>
       <c r="Q257" s="7"/>
     </row>
-    <row r="258" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="8" t="s">
         <v>300</v>
       </c>
@@ -13644,7 +13639,7 @@
         <v>43.932037450000003</v>
       </c>
     </row>
-    <row r="259" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="8" t="s">
         <v>301</v>
       </c>
@@ -13679,7 +13674,7 @@
       <c r="P259" s="7"/>
       <c r="Q259" s="7"/>
     </row>
-    <row r="260" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="8" t="s">
         <v>302</v>
       </c>
@@ -13700,7 +13695,7 @@
       <c r="P260" s="7"/>
       <c r="Q260" s="7"/>
     </row>
-    <row r="261" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="8" t="s">
         <v>303</v>
       </c>
@@ -13721,7 +13716,7 @@
       <c r="P261" s="7"/>
       <c r="Q261" s="7"/>
     </row>
-    <row r="262" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="8" t="s">
         <v>304</v>
       </c>
@@ -13742,7 +13737,7 @@
       <c r="P262" s="7"/>
       <c r="Q262" s="7"/>
     </row>
-    <row r="263" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="8" t="s">
         <v>305</v>
       </c>
@@ -13763,7 +13758,7 @@
       <c r="P263" s="7"/>
       <c r="Q263" s="7"/>
     </row>
-    <row r="264" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="8" t="s">
         <v>306</v>
       </c>
@@ -13784,7 +13779,7 @@
       <c r="P264" s="7"/>
       <c r="Q264" s="7"/>
     </row>
-    <row r="265" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="8" t="s">
         <v>307</v>
       </c>
@@ -13805,7 +13800,7 @@
       <c r="P265" s="7"/>
       <c r="Q265" s="7"/>
     </row>
-    <row r="266" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="8" t="s">
         <v>308</v>
       </c>
@@ -13842,17 +13837,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.1796875" customWidth="1"/>
-    <col min="2" max="2" width="44.54296875" customWidth="1"/>
-    <col min="3" max="3" width="91.26953125" customWidth="1"/>
-    <col min="4" max="4" width="2.26953125" customWidth="1"/>
-    <col min="5" max="5" width="1560.54296875" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="3" max="3" width="91.28515625" customWidth="1"/>
+    <col min="4" max="4" width="2.28515625" customWidth="1"/>
+    <col min="5" max="5" width="1560.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="76" t="str">
         <f>C4</f>
@@ -13863,7 +13858,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -13871,7 +13866,7 @@
       <c r="E2" s="13"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="21" t="s">
         <v>29</v>
@@ -13881,7 +13876,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="23" t="s">
         <v>34</v>
@@ -13893,7 +13888,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="26" t="s">
         <v>38</v>
@@ -13905,7 +13900,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="26" t="s">
         <v>42</v>
@@ -13915,7 +13910,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="29"/>
@@ -13923,7 +13918,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="31" t="s">
         <v>47</v>
@@ -13933,7 +13928,7 @@
       <c r="E8" s="34"/>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="35" t="s">
         <v>52</v>
@@ -13945,7 +13940,7 @@
       <c r="E9" s="34"/>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="38" t="s">
         <v>56</v>
@@ -13958,7 +13953,7 @@
       <c r="E10" s="34"/>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="38" t="s">
         <v>62</v>
@@ -13970,7 +13965,7 @@
       <c r="E11" s="34"/>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="38" t="s">
         <v>67</v>
@@ -13982,7 +13977,7 @@
       <c r="E12" s="34"/>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="43"/>
       <c r="C13" s="44"/>
@@ -13990,7 +13985,7 @@
       <c r="E13" s="34"/>
       <c r="F13" s="19"/>
     </row>
-    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="31" t="s">
         <v>73</v>
@@ -14000,7 +13995,7 @@
       <c r="E14" s="34"/>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="35" t="s">
         <v>74</v>
@@ -14012,7 +14007,7 @@
       <c r="E15" s="34"/>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="38" t="s">
         <v>76</v>
@@ -14024,7 +14019,7 @@
       <c r="E16" s="34"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="33"/>
       <c r="C17" s="46"/>
@@ -14032,7 +14027,7 @@
       <c r="E17" s="34"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="33"/>
       <c r="C18" s="46"/>
@@ -14040,7 +14035,7 @@
       <c r="E18" s="34"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="33"/>
       <c r="C19" s="46"/>
@@ -14048,7 +14043,7 @@
       <c r="E19" s="34"/>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="33"/>
       <c r="C20" s="46"/>
@@ -14056,7 +14051,7 @@
       <c r="E20" s="34"/>
       <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="33"/>
       <c r="C21" s="46"/>
@@ -14064,7 +14059,7 @@
       <c r="E21" s="34"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="33"/>
       <c r="C22" s="47"/>
@@ -14072,7 +14067,7 @@
       <c r="E22" s="34"/>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="43"/>
       <c r="C23" s="48"/>
@@ -14080,7 +14075,7 @@
       <c r="E23" s="34"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -14088,7 +14083,7 @@
       <c r="E24" s="34"/>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -14114,19 +14109,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="91.26953125" customWidth="1"/>
-    <col min="4" max="21" width="5.54296875" customWidth="1"/>
-    <col min="22" max="22" width="6.54296875" customWidth="1"/>
-    <col min="23" max="23" width="7.7265625" customWidth="1"/>
-    <col min="24" max="24" width="8.7265625" customWidth="1"/>
-    <col min="25" max="25" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="91.28515625" customWidth="1"/>
+    <col min="4" max="21" width="5.5703125" customWidth="1"/>
+    <col min="22" max="22" width="6.5703125" customWidth="1"/>
+    <col min="23" max="23" width="7.7109375" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" customWidth="1"/>
+    <col min="25" max="25" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -14159,7 +14154,7 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="7"/>
     </row>
-    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -14192,7 +14187,7 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="7"/>
     </row>
-    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
@@ -14225,7 +14220,7 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="7"/>
     </row>
-    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
@@ -14258,7 +14253,7 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="7"/>
     </row>
-    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="4"/>
@@ -14285,7 +14280,7 @@
       <c r="X5" s="6"/>
       <c r="Y5" s="7"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="4"/>
@@ -14312,7 +14307,7 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="7"/>
     </row>
-    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -14339,7 +14334,7 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="7"/>
     </row>
-    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -14366,7 +14361,7 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="7"/>
     </row>
-    <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -14393,7 +14388,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -14420,7 +14415,7 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -14447,7 +14442,7 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="7"/>
     </row>
-    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -14474,7 +14469,7 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="7"/>
     </row>
-    <row r="13" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -14501,7 +14496,7 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="7"/>
     </row>
-    <row r="14" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -14528,7 +14523,7 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="7"/>
     </row>
-    <row r="15" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -14555,7 +14550,7 @@
       <c r="X15" s="6"/>
       <c r="Y15" s="7"/>
     </row>
-    <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -14582,7 +14577,7 @@
       <c r="X16" s="6"/>
       <c r="Y16" s="7"/>
     </row>
-    <row r="17" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -14609,7 +14604,7 @@
       <c r="X17" s="6"/>
       <c r="Y17" s="7"/>
     </row>
-    <row r="18" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -14636,7 +14631,7 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="7"/>
     </row>
-    <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -14663,7 +14658,7 @@
       <c r="X19" s="6"/>
       <c r="Y19" s="7"/>
     </row>
-    <row r="20" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -14690,7 +14685,7 @@
       <c r="X20" s="6"/>
       <c r="Y20" s="7"/>
     </row>
-    <row r="21" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -14717,7 +14712,7 @@
       <c r="X21" s="6"/>
       <c r="Y21" s="7"/>
     </row>
-    <row r="22" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -14744,7 +14739,7 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="7"/>
     </row>
-    <row r="23" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -14771,7 +14766,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="7"/>
     </row>
-    <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -14798,7 +14793,7 @@
       <c r="X24" s="6"/>
       <c r="Y24" s="7"/>
     </row>
-    <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -14825,7 +14820,7 @@
       <c r="X25" s="6"/>
       <c r="Y25" s="7"/>
     </row>
-    <row r="26" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -14852,7 +14847,7 @@
       <c r="X26" s="6"/>
       <c r="Y26" s="7"/>
     </row>
-    <row r="27" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -14879,7 +14874,7 @@
       <c r="X27" s="6"/>
       <c r="Y27" s="7"/>
     </row>
-    <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -14906,7 +14901,7 @@
       <c r="X28" s="6"/>
       <c r="Y28" s="7"/>
     </row>
-    <row r="29" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -14933,7 +14928,7 @@
       <c r="X29" s="6"/>
       <c r="Y29" s="7"/>
     </row>
-    <row r="30" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -14960,7 +14955,7 @@
       <c r="X30" s="6"/>
       <c r="Y30" s="7"/>
     </row>
-    <row r="31" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -14987,7 +14982,7 @@
       <c r="X31" s="6"/>
       <c r="Y31" s="7"/>
     </row>
-    <row r="32" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -15014,7 +15009,7 @@
       <c r="X32" s="6"/>
       <c r="Y32" s="7"/>
     </row>
-    <row r="33" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -15041,7 +15036,7 @@
       <c r="X33" s="6"/>
       <c r="Y33" s="7"/>
     </row>
-    <row r="34" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -15068,7 +15063,7 @@
       <c r="X34" s="6"/>
       <c r="Y34" s="7"/>
     </row>
-    <row r="35" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -15095,7 +15090,7 @@
       <c r="X35" s="6"/>
       <c r="Y35" s="7"/>
     </row>
-    <row r="36" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -15122,7 +15117,7 @@
       <c r="X36" s="6"/>
       <c r="Y36" s="7"/>
     </row>
-    <row r="37" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -15149,7 +15144,7 @@
       <c r="X37" s="6"/>
       <c r="Y37" s="7"/>
     </row>
-    <row r="38" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -15176,7 +15171,7 @@
       <c r="X38" s="6"/>
       <c r="Y38" s="7"/>
     </row>
-    <row r="39" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -15203,7 +15198,7 @@
       <c r="X39" s="6"/>
       <c r="Y39" s="7"/>
     </row>
-    <row r="40" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -15230,7 +15225,7 @@
       <c r="X40" s="6"/>
       <c r="Y40" s="7"/>
     </row>
-    <row r="41" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -15257,7 +15252,7 @@
       <c r="X41" s="6"/>
       <c r="Y41" s="7"/>
     </row>
-    <row r="42" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -15284,7 +15279,7 @@
       <c r="X42" s="6"/>
       <c r="Y42" s="7"/>
     </row>
-    <row r="43" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -15311,7 +15306,7 @@
       <c r="X43" s="6"/>
       <c r="Y43" s="7"/>
     </row>
-    <row r="44" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -15338,7 +15333,7 @@
       <c r="X44" s="6"/>
       <c r="Y44" s="7"/>
     </row>
-    <row r="45" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -15365,7 +15360,7 @@
       <c r="X45" s="6"/>
       <c r="Y45" s="7"/>
     </row>
-    <row r="46" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -15392,7 +15387,7 @@
       <c r="X46" s="6"/>
       <c r="Y46" s="7"/>
     </row>
-    <row r="47" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -15419,7 +15414,7 @@
       <c r="X47" s="6"/>
       <c r="Y47" s="7"/>
     </row>
-    <row r="48" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -15446,7 +15441,7 @@
       <c r="X48" s="6"/>
       <c r="Y48" s="7"/>
     </row>
-    <row r="49" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -15473,7 +15468,7 @@
       <c r="X49" s="6"/>
       <c r="Y49" s="7"/>
     </row>
-    <row r="50" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -15500,7 +15495,7 @@
       <c r="X50" s="6"/>
       <c r="Y50" s="7"/>
     </row>
-    <row r="51" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -15527,7 +15522,7 @@
       <c r="X51" s="6"/>
       <c r="Y51" s="7"/>
     </row>
-    <row r="52" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -15554,7 +15549,7 @@
       <c r="X52" s="6"/>
       <c r="Y52" s="7"/>
     </row>
-    <row r="53" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -15581,7 +15576,7 @@
       <c r="X53" s="6"/>
       <c r="Y53" s="7"/>
     </row>
-    <row r="54" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -15608,7 +15603,7 @@
       <c r="X54" s="6"/>
       <c r="Y54" s="7"/>
     </row>
-    <row r="55" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -15635,7 +15630,7 @@
       <c r="X55" s="6"/>
       <c r="Y55" s="7"/>
     </row>
-    <row r="56" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -15662,7 +15657,7 @@
       <c r="X56" s="6"/>
       <c r="Y56" s="7"/>
     </row>
-    <row r="57" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -15689,7 +15684,7 @@
       <c r="X57" s="6"/>
       <c r="Y57" s="7"/>
     </row>
-    <row r="58" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -15716,7 +15711,7 @@
       <c r="X58" s="6"/>
       <c r="Y58" s="7"/>
     </row>
-    <row r="59" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -15743,7 +15738,7 @@
       <c r="X59" s="6"/>
       <c r="Y59" s="7"/>
     </row>
-    <row r="60" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -15770,7 +15765,7 @@
       <c r="X60" s="6"/>
       <c r="Y60" s="7"/>
     </row>
-    <row r="61" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -15797,7 +15792,7 @@
       <c r="X61" s="6"/>
       <c r="Y61" s="7"/>
     </row>
-    <row r="62" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -15824,7 +15819,7 @@
       <c r="X62" s="6"/>
       <c r="Y62" s="7"/>
     </row>
-    <row r="63" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -15851,7 +15846,7 @@
       <c r="X63" s="6"/>
       <c r="Y63" s="7"/>
     </row>
-    <row r="64" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -15878,7 +15873,7 @@
       <c r="X64" s="6"/>
       <c r="Y64" s="7"/>
     </row>
-    <row r="65" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -15905,7 +15900,7 @@
       <c r="X65" s="6"/>
       <c r="Y65" s="7"/>
     </row>
-    <row r="66" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -15932,7 +15927,7 @@
       <c r="X66" s="6"/>
       <c r="Y66" s="7"/>
     </row>
-    <row r="67" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -15959,7 +15954,7 @@
       <c r="X67" s="6"/>
       <c r="Y67" s="7"/>
     </row>
-    <row r="68" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -15986,7 +15981,7 @@
       <c r="X68" s="6"/>
       <c r="Y68" s="7"/>
     </row>
-    <row r="69" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -16013,7 +16008,7 @@
       <c r="X69" s="6"/>
       <c r="Y69" s="7"/>
     </row>
-    <row r="70" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -16040,7 +16035,7 @@
       <c r="X70" s="6"/>
       <c r="Y70" s="7"/>
     </row>
-    <row r="71" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -16067,7 +16062,7 @@
       <c r="X71" s="6"/>
       <c r="Y71" s="7"/>
     </row>
-    <row r="72" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -16094,7 +16089,7 @@
       <c r="X72" s="6"/>
       <c r="Y72" s="7"/>
     </row>
-    <row r="73" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -16121,7 +16116,7 @@
       <c r="X73" s="6"/>
       <c r="Y73" s="7"/>
     </row>
-    <row r="74" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -16148,7 +16143,7 @@
       <c r="X74" s="6"/>
       <c r="Y74" s="7"/>
     </row>
-    <row r="75" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -16175,7 +16170,7 @@
       <c r="X75" s="6"/>
       <c r="Y75" s="7"/>
     </row>
-    <row r="76" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -16202,7 +16197,7 @@
       <c r="X76" s="6"/>
       <c r="Y76" s="7"/>
     </row>
-    <row r="77" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -16229,7 +16224,7 @@
       <c r="X77" s="6"/>
       <c r="Y77" s="7"/>
     </row>
-    <row r="78" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -16256,7 +16251,7 @@
       <c r="X78" s="6"/>
       <c r="Y78" s="7"/>
     </row>
-    <row r="79" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -16283,7 +16278,7 @@
       <c r="X79" s="6"/>
       <c r="Y79" s="7"/>
     </row>
-    <row r="80" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -16310,7 +16305,7 @@
       <c r="X80" s="6"/>
       <c r="Y80" s="7"/>
     </row>
-    <row r="81" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -16337,7 +16332,7 @@
       <c r="X81" s="6"/>
       <c r="Y81" s="7"/>
     </row>
-    <row r="82" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -16364,7 +16359,7 @@
       <c r="X82" s="6"/>
       <c r="Y82" s="7"/>
     </row>
-    <row r="83" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -16391,7 +16386,7 @@
       <c r="X83" s="6"/>
       <c r="Y83" s="7"/>
     </row>
-    <row r="84" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -16418,7 +16413,7 @@
       <c r="X84" s="6"/>
       <c r="Y84" s="7"/>
     </row>
-    <row r="85" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -16445,7 +16440,7 @@
       <c r="X85" s="6"/>
       <c r="Y85" s="7"/>
     </row>
-    <row r="86" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -16472,7 +16467,7 @@
       <c r="X86" s="6"/>
       <c r="Y86" s="7"/>
     </row>
-    <row r="87" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -16499,7 +16494,7 @@
       <c r="X87" s="6"/>
       <c r="Y87" s="7"/>
     </row>
-    <row r="88" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -16526,7 +16521,7 @@
       <c r="X88" s="6"/>
       <c r="Y88" s="7"/>
     </row>
-    <row r="89" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -16553,7 +16548,7 @@
       <c r="X89" s="6"/>
       <c r="Y89" s="7"/>
     </row>
-    <row r="90" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -16580,7 +16575,7 @@
       <c r="X90" s="6"/>
       <c r="Y90" s="7"/>
     </row>
-    <row r="91" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -16607,7 +16602,7 @@
       <c r="X91" s="6"/>
       <c r="Y91" s="7"/>
     </row>
-    <row r="92" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -16634,7 +16629,7 @@
       <c r="X92" s="6"/>
       <c r="Y92" s="7"/>
     </row>
-    <row r="93" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -16661,7 +16656,7 @@
       <c r="X93" s="6"/>
       <c r="Y93" s="7"/>
     </row>
-    <row r="94" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -16688,7 +16683,7 @@
       <c r="X94" s="6"/>
       <c r="Y94" s="7"/>
     </row>
-    <row r="95" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -16715,7 +16710,7 @@
       <c r="X95" s="6"/>
       <c r="Y95" s="7"/>
     </row>
-    <row r="96" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -16742,7 +16737,7 @@
       <c r="X96" s="6"/>
       <c r="Y96" s="7"/>
     </row>
-    <row r="97" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -16769,7 +16764,7 @@
       <c r="X97" s="6"/>
       <c r="Y97" s="7"/>
     </row>
-    <row r="98" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -16796,7 +16791,7 @@
       <c r="X98" s="6"/>
       <c r="Y98" s="7"/>
     </row>
-    <row r="99" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -16823,7 +16818,7 @@
       <c r="X99" s="6"/>
       <c r="Y99" s="7"/>
     </row>
-    <row r="100" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -16850,7 +16845,7 @@
       <c r="X100" s="6"/>
       <c r="Y100" s="7"/>
     </row>
-    <row r="101" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -16877,7 +16872,7 @@
       <c r="X101" s="6"/>
       <c r="Y101" s="7"/>
     </row>
-    <row r="102" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -16904,7 +16899,7 @@
       <c r="X102" s="6"/>
       <c r="Y102" s="7"/>
     </row>
-    <row r="103" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -16931,7 +16926,7 @@
       <c r="X103" s="6"/>
       <c r="Y103" s="7"/>
     </row>
-    <row r="104" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -16969,16 +16964,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
-    <col min="2" max="2" width="54.26953125" customWidth="1"/>
-    <col min="3" max="3" width="1.1796875" customWidth="1"/>
-    <col min="4" max="4" width="56.54296875" customWidth="1"/>
-    <col min="5" max="6" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="3" max="3" width="1.140625" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" customWidth="1"/>
+    <col min="5" max="6" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="78" t="s">
         <v>94</v>
       </c>
@@ -16988,7 +16983,7 @@
       <c r="E1" s="34"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="32"/>
       <c r="C2" s="52"/>
@@ -16996,7 +16991,7 @@
       <c r="E2" s="34"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="54" t="s">
         <v>103</v>
       </c>
@@ -17010,7 +17005,7 @@
       <c r="E3" s="34"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="54" t="s">
         <v>109</v>
       </c>
@@ -17024,7 +17019,7 @@
       <c r="E4" s="34"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
         <v>112</v>
       </c>
@@ -17038,7 +17033,7 @@
       <c r="E5" s="34"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
@@ -17046,7 +17041,7 @@
       <c r="E6" s="34"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -17054,7 +17049,7 @@
       <c r="E7" s="19"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -17062,7 +17057,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -17070,7 +17065,7 @@
       <c r="E9" s="19"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -17078,7 +17073,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -17086,7 +17081,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -17094,7 +17089,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -17102,7 +17097,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -17110,7 +17105,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -17118,7 +17113,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -17126,7 +17121,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -17134,7 +17129,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -17142,7 +17137,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -17150,7 +17145,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -17175,17 +17170,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.26953125" customWidth="1"/>
-    <col min="3" max="3" width="91.26953125" customWidth="1"/>
-    <col min="4" max="4" width="2.26953125" customWidth="1"/>
-    <col min="5" max="5" width="1560.54296875" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="91.28515625" customWidth="1"/>
+    <col min="4" max="4" width="2.28515625" customWidth="1"/>
+    <col min="5" max="5" width="1560.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="76" t="s">
         <v>132</v>
@@ -17195,7 +17190,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -17203,7 +17198,7 @@
       <c r="E2" s="13"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="81" t="s">
         <v>137</v>
@@ -17213,7 +17208,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="64"/>
       <c r="B4" s="65" t="s">
         <v>141</v>
@@ -17225,7 +17220,7 @@
       <c r="E4" s="68"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="64"/>
       <c r="B5" s="69" t="s">
         <v>145</v>
@@ -17237,7 +17232,7 @@
       <c r="E5" s="68"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="64"/>
       <c r="B6" s="69" t="s">
         <v>149</v>
@@ -17249,7 +17244,7 @@
       <c r="E6" s="68"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="64"/>
       <c r="B7" s="71"/>
       <c r="C7" s="72"/>
@@ -17257,7 +17252,7 @@
       <c r="E7" s="68"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="49"/>
       <c r="B8" s="73"/>
       <c r="C8" s="73"/>
@@ -17265,7 +17260,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="51"/>
       <c r="B9" s="75"/>
       <c r="C9" s="75"/>
@@ -17273,7 +17268,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -17281,7 +17276,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -17289,7 +17284,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -17297,7 +17292,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -17305,7 +17300,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -17313,7 +17308,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -17321,7 +17316,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -17329,7 +17324,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -17337,7 +17332,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -17345,7 +17340,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -17353,7 +17348,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -17376,17 +17371,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="21" width="5.54296875" customWidth="1"/>
-    <col min="22" max="22" width="6.54296875" customWidth="1"/>
-    <col min="23" max="23" width="7.7265625" customWidth="1"/>
-    <col min="24" max="24" width="8.7265625" customWidth="1"/>
-    <col min="25" max="25" width="9.26953125" customWidth="1"/>
+    <col min="1" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="21" width="5.5703125" customWidth="1"/>
+    <col min="22" max="22" width="6.5703125" customWidth="1"/>
+    <col min="23" max="23" width="7.7109375" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" customWidth="1"/>
+    <col min="25" max="25" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>161</v>
       </c>
@@ -17417,7 +17412,7 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="7"/>
     </row>
-    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -17444,7 +17439,7 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="7"/>
     </row>
-    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -17471,7 +17466,7 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="7"/>
     </row>
-    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -17498,7 +17493,7 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="7"/>
     </row>
-    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -17525,7 +17520,7 @@
       <c r="X5" s="6"/>
       <c r="Y5" s="7"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -17552,7 +17547,7 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="7"/>
     </row>
-    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -17579,7 +17574,7 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="7"/>
     </row>
-    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -17606,7 +17601,7 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="7"/>
     </row>
-    <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -17633,7 +17628,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -17660,7 +17655,7 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -17687,7 +17682,7 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="7"/>
     </row>
-    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -17714,7 +17709,7 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="7"/>
     </row>
-    <row r="13" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -17741,7 +17736,7 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="7"/>
     </row>
-    <row r="14" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -17768,7 +17763,7 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="7"/>
     </row>
-    <row r="15" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -17795,7 +17790,7 @@
       <c r="X15" s="6"/>
       <c r="Y15" s="7"/>
     </row>
-    <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -17822,7 +17817,7 @@
       <c r="X16" s="6"/>
       <c r="Y16" s="7"/>
     </row>
-    <row r="17" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -17849,7 +17844,7 @@
       <c r="X17" s="6"/>
       <c r="Y17" s="7"/>
     </row>
-    <row r="18" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -17876,7 +17871,7 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="7"/>
     </row>
-    <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -17903,7 +17898,7 @@
       <c r="X19" s="6"/>
       <c r="Y19" s="7"/>
     </row>
-    <row r="20" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -17930,7 +17925,7 @@
       <c r="X20" s="6"/>
       <c r="Y20" s="7"/>
     </row>
-    <row r="21" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -17957,7 +17952,7 @@
       <c r="X21" s="6"/>
       <c r="Y21" s="7"/>
     </row>
-    <row r="22" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -17984,7 +17979,7 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="7"/>
     </row>
-    <row r="23" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -18011,7 +18006,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="7"/>
     </row>
-    <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -18038,7 +18033,7 @@
       <c r="X24" s="6"/>
       <c r="Y24" s="7"/>
     </row>
-    <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -18065,7 +18060,7 @@
       <c r="X25" s="6"/>
       <c r="Y25" s="7"/>
     </row>
-    <row r="26" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -18092,7 +18087,7 @@
       <c r="X26" s="6"/>
       <c r="Y26" s="7"/>
     </row>
-    <row r="27" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -18119,7 +18114,7 @@
       <c r="X27" s="6"/>
       <c r="Y27" s="7"/>
     </row>
-    <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -18146,7 +18141,7 @@
       <c r="X28" s="6"/>
       <c r="Y28" s="7"/>
     </row>
-    <row r="29" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -18173,7 +18168,7 @@
       <c r="X29" s="6"/>
       <c r="Y29" s="7"/>
     </row>
-    <row r="30" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -18200,7 +18195,7 @@
       <c r="X30" s="6"/>
       <c r="Y30" s="7"/>
     </row>
-    <row r="31" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -18227,7 +18222,7 @@
       <c r="X31" s="6"/>
       <c r="Y31" s="7"/>
     </row>
-    <row r="32" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -18254,7 +18249,7 @@
       <c r="X32" s="6"/>
       <c r="Y32" s="7"/>
     </row>
-    <row r="33" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -18281,7 +18276,7 @@
       <c r="X33" s="6"/>
       <c r="Y33" s="7"/>
     </row>
-    <row r="34" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -18308,7 +18303,7 @@
       <c r="X34" s="6"/>
       <c r="Y34" s="7"/>
     </row>
-    <row r="35" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -18335,7 +18330,7 @@
       <c r="X35" s="6"/>
       <c r="Y35" s="7"/>
     </row>
-    <row r="36" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -18362,7 +18357,7 @@
       <c r="X36" s="6"/>
       <c r="Y36" s="7"/>
     </row>
-    <row r="37" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -18389,7 +18384,7 @@
       <c r="X37" s="6"/>
       <c r="Y37" s="7"/>
     </row>
-    <row r="38" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -18416,7 +18411,7 @@
       <c r="X38" s="6"/>
       <c r="Y38" s="7"/>
     </row>
-    <row r="39" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -18443,7 +18438,7 @@
       <c r="X39" s="6"/>
       <c r="Y39" s="7"/>
     </row>
-    <row r="40" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -18470,7 +18465,7 @@
       <c r="X40" s="6"/>
       <c r="Y40" s="7"/>
     </row>
-    <row r="41" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -18497,7 +18492,7 @@
       <c r="X41" s="6"/>
       <c r="Y41" s="7"/>
     </row>
-    <row r="42" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -18524,7 +18519,7 @@
       <c r="X42" s="6"/>
       <c r="Y42" s="7"/>
     </row>
-    <row r="43" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -18551,7 +18546,7 @@
       <c r="X43" s="6"/>
       <c r="Y43" s="7"/>
     </row>
-    <row r="44" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -18578,7 +18573,7 @@
       <c r="X44" s="6"/>
       <c r="Y44" s="7"/>
     </row>
-    <row r="45" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -18605,7 +18600,7 @@
       <c r="X45" s="6"/>
       <c r="Y45" s="7"/>
     </row>
-    <row r="46" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -18632,7 +18627,7 @@
       <c r="X46" s="6"/>
       <c r="Y46" s="7"/>
     </row>
-    <row r="47" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -18659,7 +18654,7 @@
       <c r="X47" s="6"/>
       <c r="Y47" s="7"/>
     </row>
-    <row r="48" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -18686,7 +18681,7 @@
       <c r="X48" s="6"/>
       <c r="Y48" s="7"/>
     </row>
-    <row r="49" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -18713,7 +18708,7 @@
       <c r="X49" s="6"/>
       <c r="Y49" s="7"/>
     </row>
-    <row r="50" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -18740,7 +18735,7 @@
       <c r="X50" s="6"/>
       <c r="Y50" s="7"/>
     </row>
-    <row r="51" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -18767,7 +18762,7 @@
       <c r="X51" s="6"/>
       <c r="Y51" s="7"/>
     </row>
-    <row r="52" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -18794,7 +18789,7 @@
       <c r="X52" s="6"/>
       <c r="Y52" s="7"/>
     </row>
-    <row r="53" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -18821,7 +18816,7 @@
       <c r="X53" s="6"/>
       <c r="Y53" s="7"/>
     </row>
-    <row r="54" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -18848,7 +18843,7 @@
       <c r="X54" s="6"/>
       <c r="Y54" s="7"/>
     </row>
-    <row r="55" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -18875,7 +18870,7 @@
       <c r="X55" s="6"/>
       <c r="Y55" s="7"/>
     </row>
-    <row r="56" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -18902,7 +18897,7 @@
       <c r="X56" s="6"/>
       <c r="Y56" s="7"/>
     </row>
-    <row r="57" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -18929,7 +18924,7 @@
       <c r="X57" s="6"/>
       <c r="Y57" s="7"/>
     </row>
-    <row r="58" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -18956,7 +18951,7 @@
       <c r="X58" s="6"/>
       <c r="Y58" s="7"/>
     </row>
-    <row r="59" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -18983,7 +18978,7 @@
       <c r="X59" s="6"/>
       <c r="Y59" s="7"/>
     </row>
-    <row r="60" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -19010,7 +19005,7 @@
       <c r="X60" s="6"/>
       <c r="Y60" s="7"/>
     </row>
-    <row r="61" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -19037,7 +19032,7 @@
       <c r="X61" s="6"/>
       <c r="Y61" s="7"/>
     </row>
-    <row r="62" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -19064,7 +19059,7 @@
       <c r="X62" s="6"/>
       <c r="Y62" s="7"/>
     </row>
-    <row r="63" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -19091,7 +19086,7 @@
       <c r="X63" s="6"/>
       <c r="Y63" s="7"/>
     </row>
-    <row r="64" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -19118,7 +19113,7 @@
       <c r="X64" s="6"/>
       <c r="Y64" s="7"/>
     </row>
-    <row r="65" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -19145,7 +19140,7 @@
       <c r="X65" s="6"/>
       <c r="Y65" s="7"/>
     </row>
-    <row r="66" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -19172,7 +19167,7 @@
       <c r="X66" s="6"/>
       <c r="Y66" s="7"/>
     </row>
-    <row r="67" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -19199,7 +19194,7 @@
       <c r="X67" s="6"/>
       <c r="Y67" s="7"/>
     </row>
-    <row r="68" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -19226,7 +19221,7 @@
       <c r="X68" s="6"/>
       <c r="Y68" s="7"/>
     </row>
-    <row r="69" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -19253,7 +19248,7 @@
       <c r="X69" s="6"/>
       <c r="Y69" s="7"/>
     </row>
-    <row r="70" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -19280,7 +19275,7 @@
       <c r="X70" s="6"/>
       <c r="Y70" s="7"/>
     </row>
-    <row r="71" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -19307,7 +19302,7 @@
       <c r="X71" s="6"/>
       <c r="Y71" s="7"/>
     </row>
-    <row r="72" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -19334,7 +19329,7 @@
       <c r="X72" s="6"/>
       <c r="Y72" s="7"/>
     </row>
-    <row r="73" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -19361,7 +19356,7 @@
       <c r="X73" s="6"/>
       <c r="Y73" s="7"/>
     </row>
-    <row r="74" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -19388,7 +19383,7 @@
       <c r="X74" s="6"/>
       <c r="Y74" s="7"/>
     </row>
-    <row r="75" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -19415,7 +19410,7 @@
       <c r="X75" s="6"/>
       <c r="Y75" s="7"/>
     </row>
-    <row r="76" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -19442,7 +19437,7 @@
       <c r="X76" s="6"/>
       <c r="Y76" s="7"/>
     </row>
-    <row r="77" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -19469,7 +19464,7 @@
       <c r="X77" s="6"/>
       <c r="Y77" s="7"/>
     </row>
-    <row r="78" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -19496,7 +19491,7 @@
       <c r="X78" s="6"/>
       <c r="Y78" s="7"/>
     </row>
-    <row r="79" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -19523,7 +19518,7 @@
       <c r="X79" s="6"/>
       <c r="Y79" s="7"/>
     </row>
-    <row r="80" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -19550,7 +19545,7 @@
       <c r="X80" s="6"/>
       <c r="Y80" s="7"/>
     </row>
-    <row r="81" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -19577,7 +19572,7 @@
       <c r="X81" s="6"/>
       <c r="Y81" s="7"/>
     </row>
-    <row r="82" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -19604,7 +19599,7 @@
       <c r="X82" s="6"/>
       <c r="Y82" s="7"/>
     </row>
-    <row r="83" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -19631,7 +19626,7 @@
       <c r="X83" s="6"/>
       <c r="Y83" s="7"/>
     </row>
-    <row r="84" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -19658,7 +19653,7 @@
       <c r="X84" s="6"/>
       <c r="Y84" s="7"/>
     </row>
-    <row r="85" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -19685,7 +19680,7 @@
       <c r="X85" s="6"/>
       <c r="Y85" s="7"/>
     </row>
-    <row r="86" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -19712,7 +19707,7 @@
       <c r="X86" s="6"/>
       <c r="Y86" s="7"/>
     </row>
-    <row r="87" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -19739,7 +19734,7 @@
       <c r="X87" s="6"/>
       <c r="Y87" s="7"/>
     </row>
-    <row r="88" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -19766,7 +19761,7 @@
       <c r="X88" s="6"/>
       <c r="Y88" s="7"/>
     </row>
-    <row r="89" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -19793,7 +19788,7 @@
       <c r="X89" s="6"/>
       <c r="Y89" s="7"/>
     </row>
-    <row r="90" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -19820,7 +19815,7 @@
       <c r="X90" s="6"/>
       <c r="Y90" s="7"/>
     </row>
-    <row r="91" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -19847,7 +19842,7 @@
       <c r="X91" s="6"/>
       <c r="Y91" s="7"/>
     </row>
-    <row r="92" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -19874,7 +19869,7 @@
       <c r="X92" s="6"/>
       <c r="Y92" s="7"/>
     </row>
-    <row r="93" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -19901,7 +19896,7 @@
       <c r="X93" s="6"/>
       <c r="Y93" s="7"/>
     </row>
-    <row r="94" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -19928,7 +19923,7 @@
       <c r="X94" s="6"/>
       <c r="Y94" s="7"/>
     </row>
-    <row r="95" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -19955,7 +19950,7 @@
       <c r="X95" s="6"/>
       <c r="Y95" s="7"/>
     </row>
-    <row r="96" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -19982,7 +19977,7 @@
       <c r="X96" s="6"/>
       <c r="Y96" s="7"/>
     </row>
-    <row r="97" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -20009,7 +20004,7 @@
       <c r="X97" s="6"/>
       <c r="Y97" s="7"/>
     </row>
-    <row r="98" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -20036,7 +20031,7 @@
       <c r="X98" s="6"/>
       <c r="Y98" s="7"/>
     </row>
-    <row r="99" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -20063,7 +20058,7 @@
       <c r="X99" s="6"/>
       <c r="Y99" s="7"/>
     </row>
-    <row r="100" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -20090,7 +20085,7 @@
       <c r="X100" s="6"/>
       <c r="Y100" s="7"/>
     </row>
-    <row r="101" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -20117,7 +20112,7 @@
       <c r="X101" s="6"/>
       <c r="Y101" s="7"/>
     </row>
-    <row r="102" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -20144,7 +20139,7 @@
       <c r="X102" s="6"/>
       <c r="Y102" s="7"/>
     </row>
-    <row r="103" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -20171,7 +20166,7 @@
       <c r="X103" s="6"/>
       <c r="Y103" s="7"/>
     </row>
-    <row r="104" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -20198,7 +20193,7 @@
       <c r="X104" s="6"/>
       <c r="Y104" s="7"/>
     </row>
-    <row r="105" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>

--- a/Projeto-3/government.xlsx
+++ b/Projeto-3/government.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Documents\GitHub\CD_projeto3\Projeto-3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -14,12 +19,12 @@
     <sheet name="Download" sheetId="5" r:id="rId5"/>
     <sheet name="v" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="310">
   <si>
     <t>Per capita government expenditure on health at average exchange rate (US$)</t>
   </si>
@@ -946,9 +951,6 @@
   </si>
   <si>
     <t>St. Martin (French part)</t>
-  </si>
-  <si>
-    <t>Paises</t>
   </si>
   <si>
     <t>year</t>
@@ -957,7 +959,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2105,7 +2107,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2115,20 +2117,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="17" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="2" max="17" width="6.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>309</v>
-      </c>
+    <row r="1" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
       <c r="B1" s="5">
         <v>1995</v>
       </c>
@@ -2166,7 +2164,7 @@
         <v>2006</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O1" s="5">
         <v>2008</v>
@@ -2178,7 +2176,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -2199,7 +2197,7 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -2238,7 +2236,7 @@
         <v>4.3904075899999997</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -2259,7 +2257,7 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -2312,7 +2310,7 @@
         <v>94.023612639999996</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -2365,7 +2363,7 @@
         <v>138.84092275</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -2386,7 +2384,7 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -2439,7 +2437,7 @@
         <v>2172.37916163</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -2492,7 +2490,7 @@
         <v>101.5915272</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -2513,7 +2511,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
@@ -2566,7 +2564,7 @@
         <v>489.45570042999998</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -2619,7 +2617,7 @@
         <v>405.05887531000002</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
@@ -2672,7 +2670,7 @@
         <v>54.238760239999998</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
@@ -2693,7 +2691,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
@@ -2746,7 +2744,7 @@
         <v>3246.3658119800002</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>23</v>
       </c>
@@ -2799,7 +2797,7 @@
         <v>3843.4238953899999</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>26</v>
       </c>
@@ -2852,7 +2850,7 @@
         <v>67.262312089999995</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>27</v>
       </c>
@@ -2905,7 +2903,7 @@
         <v>791.11451337000005</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
@@ -2958,7 +2956,7 @@
         <v>633.62770191000004</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -3011,7 +3009,7 @@
         <v>58.005544620000002</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>31</v>
       </c>
@@ -3064,7 +3062,7 @@
         <v>652.30749760000003</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>32</v>
       </c>
@@ -3117,7 +3115,7 @@
         <v>248.31391694000001</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>33</v>
       </c>
@@ -3170,7 +3168,7 @@
         <v>3451.9022217299998</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>35</v>
       </c>
@@ -3223,7 +3221,7 @@
         <v>149.71976753999999</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>36</v>
       </c>
@@ -3276,7 +3274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>37</v>
       </c>
@@ -3297,7 +3295,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>39</v>
       </c>
@@ -3350,7 +3348,7 @@
         <v>94.197706960000005</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
@@ -3403,7 +3401,7 @@
         <v>60.653492010000001</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>43</v>
       </c>
@@ -3456,7 +3454,7 @@
         <v>306.52684274000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>44</v>
       </c>
@@ -3509,7 +3507,7 @@
         <v>445.76072305999998</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>45</v>
       </c>
@@ -3562,7 +3560,7 @@
         <v>465.67404002000001</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>46</v>
       </c>
@@ -3583,7 +3581,7 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
     </row>
-    <row r="33" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>48</v>
       </c>
@@ -3636,7 +3634,7 @@
         <v>748.32260895000002</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>49</v>
       </c>
@@ -3689,7 +3687,7 @@
         <v>236.9744713</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>50</v>
       </c>
@@ -3742,7 +3740,7 @@
         <v>20.27447781</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>51</v>
       </c>
@@ -3795,7 +3793,7 @@
         <v>7.9094023800000004</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>53</v>
       </c>
@@ -3848,7 +3846,7 @@
         <v>16.821390109999999</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>55</v>
       </c>
@@ -3901,7 +3899,7 @@
         <v>18.17108644</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>57</v>
       </c>
@@ -3954,7 +3952,7 @@
         <v>3681.4261347800002</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>58</v>
       </c>
@@ -4007,7 +4005,7 @@
         <v>116.0392246</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>59</v>
       </c>
@@ -4028,7 +4026,7 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>60</v>
       </c>
@@ -4081,7 +4079,7 @@
         <v>6.4365166</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>61</v>
       </c>
@@ -4134,7 +4132,7 @@
         <v>7.65331926</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>64</v>
       </c>
@@ -4155,7 +4153,7 @@
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
     </row>
-    <row r="45" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>65</v>
       </c>
@@ -4208,7 +4206,7 @@
         <v>456.40623165</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>66</v>
       </c>
@@ -4261,7 +4259,7 @@
         <v>118.38841635999999</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>69</v>
       </c>
@@ -4282,7 +4280,7 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>70</v>
       </c>
@@ -4303,7 +4301,7 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
     </row>
-    <row r="49" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>71</v>
       </c>
@@ -4356,7 +4354,7 @@
         <v>343.24719239000001</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>72</v>
       </c>
@@ -4409,7 +4407,7 @@
         <v>22.33183442</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>5</v>
       </c>
@@ -4462,7 +4460,7 @@
         <v>6.6987602700000002</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>78</v>
       </c>
@@ -4515,7 +4513,7 @@
         <v>33.788124269999997</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>79</v>
       </c>
@@ -4568,7 +4566,7 @@
         <v>505.53890813999999</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>80</v>
       </c>
@@ -4621,7 +4619,7 @@
         <v>552.60030071999995</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>81</v>
       </c>
@@ -4674,7 +4672,7 @@
         <v>12.89902835</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>82</v>
       </c>
@@ -4727,7 +4725,7 @@
         <v>905.3148175</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>83</v>
       </c>
@@ -4780,7 +4778,7 @@
         <v>555.26596690999997</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>84</v>
       </c>
@@ -4833,7 +4831,7 @@
         <v>707.49492013999998</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>85</v>
       </c>
@@ -4886,7 +4884,7 @@
         <v>1238.4109685200001</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>86</v>
       </c>
@@ -4907,7 +4905,7 @@
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>87</v>
       </c>
@@ -4960,7 +4958,7 @@
         <v>5465.08605214</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>88</v>
       </c>
@@ -5013,7 +5011,7 @@
         <v>59.843274819999998</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>89</v>
       </c>
@@ -5066,7 +5064,7 @@
         <v>291.99115139000003</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>90</v>
       </c>
@@ -5119,7 +5117,7 @@
         <v>140.17783079</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>91</v>
       </c>
@@ -5140,7 +5138,7 @@
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>92</v>
       </c>
@@ -5193,7 +5191,7 @@
         <v>122.13839462</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>93</v>
       </c>
@@ -5246,7 +5244,7 @@
         <v>46.078980090000002</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>95</v>
       </c>
@@ -5299,7 +5297,7 @@
         <v>146.10060111000001</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>96</v>
       </c>
@@ -5352,7 +5350,7 @@
         <v>680.49435968</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>97</v>
       </c>
@@ -5405,7 +5403,7 @@
         <v>5.7416796400000001</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>98</v>
       </c>
@@ -5426,7 +5424,7 @@
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
     </row>
-    <row r="72" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>99</v>
       </c>
@@ -5479,7 +5477,7 @@
         <v>671.37168727999995</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>100</v>
       </c>
@@ -5532,7 +5530,7 @@
         <v>8.4136979299999997</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>101</v>
       </c>
@@ -5553,7 +5551,7 @@
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
     </row>
-    <row r="75" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>102</v>
       </c>
@@ -5574,7 +5572,7 @@
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
     </row>
-    <row r="76" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>104</v>
       </c>
@@ -5627,7 +5625,7 @@
         <v>108.19264259000001</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>105</v>
       </c>
@@ -5680,7 +5678,7 @@
         <v>2990.4126385499999</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>107</v>
       </c>
@@ -5733,7 +5731,7 @@
         <v>3651.8490060099998</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>108</v>
       </c>
@@ -5754,7 +5752,7 @@
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
     </row>
-    <row r="80" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>110</v>
       </c>
@@ -5775,7 +5773,7 @@
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
     </row>
-    <row r="81" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>114</v>
       </c>
@@ -5828,7 +5826,7 @@
         <v>159.87577109</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>115</v>
       </c>
@@ -5881,7 +5879,7 @@
         <v>13.283301399999999</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>116</v>
       </c>
@@ -5934,7 +5932,7 @@
         <v>64.200040259999994</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>118</v>
       </c>
@@ -5987,7 +5985,7 @@
         <v>3598.2982919400001</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>119</v>
       </c>
@@ -6040,7 +6038,7 @@
         <v>39.875349200000002</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>120</v>
       </c>
@@ -6061,7 +6059,7 @@
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
     </row>
-    <row r="87" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>121</v>
       </c>
@@ -6114,7 +6112,7 @@
         <v>1621.20531781</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>122</v>
       </c>
@@ -6135,7 +6133,7 @@
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
     </row>
-    <row r="89" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>123</v>
       </c>
@@ -6188,7 +6186,7 @@
         <v>197.51370098000001</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>124</v>
       </c>
@@ -6209,7 +6207,7 @@
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
     </row>
-    <row r="91" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>125</v>
       </c>
@@ -6230,7 +6228,7 @@
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
     </row>
-    <row r="92" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>126</v>
       </c>
@@ -6283,7 +6281,7 @@
         <v>68.652654639999994</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>127</v>
       </c>
@@ -6304,7 +6302,7 @@
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
     </row>
-    <row r="94" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>128</v>
       </c>
@@ -6357,7 +6355,7 @@
         <v>2.5971110999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>129</v>
       </c>
@@ -6410,7 +6408,7 @@
         <v>4.7015105899999998</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>130</v>
       </c>
@@ -6463,7 +6461,7 @@
         <v>135.59788621000001</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>131</v>
       </c>
@@ -6516,7 +6514,7 @@
         <v>9.9534509399999997</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>133</v>
       </c>
@@ -6537,7 +6535,7 @@
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
     </row>
-    <row r="99" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>134</v>
       </c>
@@ -6588,7 +6586,7 @@
       </c>
       <c r="Q99" s="7"/>
     </row>
-    <row r="100" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>135</v>
       </c>
@@ -6609,7 +6607,7 @@
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
     </row>
-    <row r="101" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>136</v>
       </c>
@@ -6662,7 +6660,7 @@
         <v>653.76160895999999</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>138</v>
       </c>
@@ -6715,7 +6713,7 @@
         <v>3003.52769674</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>139</v>
       </c>
@@ -6768,7 +6766,7 @@
         <v>15.82486231</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>140</v>
       </c>
@@ -6821,7 +6819,7 @@
         <v>37.74177117</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>142</v>
       </c>
@@ -6874,7 +6872,7 @@
         <v>127.18679950000001</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>18</v>
       </c>
@@ -6925,7 +6923,7 @@
         <v>200.31894008</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>144</v>
       </c>
@@ -6978,7 +6976,7 @@
         <v>2933.4000938899999</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>146</v>
       </c>
@@ -6999,7 +6997,7 @@
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
     </row>
-    <row r="109" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>148</v>
       </c>
@@ -7052,7 +7050,7 @@
         <v>1316.98034953</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>151</v>
       </c>
@@ -7105,7 +7103,7 @@
         <v>2520.7428686500002</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>152</v>
       </c>
@@ -7158,7 +7156,7 @@
         <v>132.31077661</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>153</v>
       </c>
@@ -7211,7 +7209,7 @@
         <v>3355.0700976100002</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>154</v>
       </c>
@@ -7232,7 +7230,7 @@
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
     </row>
-    <row r="114" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>155</v>
       </c>
@@ -7285,7 +7283,7 @@
         <v>241.83869529</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>156</v>
       </c>
@@ -7338,7 +7336,7 @@
         <v>233.45774001000001</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>157</v>
       </c>
@@ -7391,7 +7389,7 @@
         <v>16.32270669</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>158</v>
       </c>
@@ -7444,7 +7442,7 @@
         <v>131.41312937000001</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>159</v>
       </c>
@@ -7465,7 +7463,7 @@
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
     </row>
-    <row r="119" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>160</v>
       </c>
@@ -7516,7 +7514,7 @@
         <v>848.43616544999998</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>163</v>
       </c>
@@ -7537,7 +7535,7 @@
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
     </row>
-    <row r="121" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>164</v>
       </c>
@@ -7558,7 +7556,7 @@
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
     </row>
-    <row r="122" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>165</v>
       </c>
@@ -7611,7 +7609,7 @@
         <v>983.14059780000002</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>166</v>
       </c>
@@ -7664,7 +7662,7 @@
         <v>30.04684327</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>167</v>
       </c>
@@ -7717,7 +7715,7 @@
         <v>15.367497330000001</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>168</v>
       </c>
@@ -7770,7 +7768,7 @@
         <v>438.74289212999997</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>169</v>
       </c>
@@ -7823,7 +7821,7 @@
         <v>254.95531389000001</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>170</v>
       </c>
@@ -7876,7 +7874,7 @@
         <v>83.000869170000001</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>171</v>
       </c>
@@ -7923,7 +7921,7 @@
         <v>9.4872497599999992</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>172</v>
       </c>
@@ -7976,7 +7974,7 @@
         <v>332.69296609000003</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>173</v>
       </c>
@@ -7997,7 +7995,7 @@
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
     </row>
-    <row r="131" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>174</v>
       </c>
@@ -8050,7 +8048,7 @@
         <v>574.23778454000001</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>175</v>
       </c>
@@ -8103,7 +8101,7 @@
         <v>6905.5303441200003</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>176</v>
       </c>
@@ -8124,7 +8122,7 @@
       <c r="P133" s="7"/>
       <c r="Q133" s="7"/>
     </row>
-    <row r="134" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>177</v>
       </c>
@@ -8177,7 +8175,7 @@
         <v>202.00997115000001</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>178</v>
       </c>
@@ -8230,7 +8228,7 @@
         <v>9.5850381200000001</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>179</v>
       </c>
@@ -8283,7 +8281,7 @@
         <v>15.421249319999999</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>180</v>
       </c>
@@ -8336,7 +8334,7 @@
         <v>204.24464946000001</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>181</v>
       </c>
@@ -8389,7 +8387,7 @@
         <v>231.37008657000001</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>182</v>
       </c>
@@ -8442,7 +8440,7 @@
         <v>14.74603617</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>183</v>
       </c>
@@ -8495,7 +8493,7 @@
         <v>1111.1156390599999</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>184</v>
       </c>
@@ -8548,7 +8546,7 @@
         <v>433.13185184000002</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>185</v>
       </c>
@@ -8569,7 +8567,7 @@
       <c r="P142" s="7"/>
       <c r="Q142" s="7"/>
     </row>
-    <row r="143" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>186</v>
       </c>
@@ -8622,7 +8620,7 @@
         <v>22.668541099999999</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>187</v>
       </c>
@@ -8675,7 +8673,7 @@
         <v>187.22084082000001</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>188</v>
       </c>
@@ -8696,7 +8694,7 @@
       <c r="P145" s="7"/>
       <c r="Q145" s="7"/>
     </row>
-    <row r="146" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>189</v>
       </c>
@@ -8747,7 +8745,7 @@
       </c>
       <c r="Q146" s="7"/>
     </row>
-    <row r="147" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>190</v>
       </c>
@@ -8800,7 +8798,7 @@
         <v>333.82284088</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>191</v>
       </c>
@@ -8853,7 +8851,7 @@
         <v>87.198917609999995</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>192</v>
       </c>
@@ -8906,7 +8904,7 @@
         <v>5569.6647540000004</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>193</v>
       </c>
@@ -8959,7 +8957,7 @@
         <v>66.169247400000003</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>194</v>
       </c>
@@ -9012,7 +9010,7 @@
         <v>388.48505378999999</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>195</v>
       </c>
@@ -9033,7 +9031,7 @@
       <c r="P152" s="7"/>
       <c r="Q152" s="7"/>
     </row>
-    <row r="153" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>196</v>
       </c>
@@ -9086,7 +9084,7 @@
         <v>56.156513689999997</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>197</v>
       </c>
@@ -9139,7 +9137,7 @@
         <v>15.30809273</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
         <v>24</v>
       </c>
@@ -9192,7 +9190,7 @@
         <v>2.08765066</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>198</v>
       </c>
@@ -9245,7 +9243,7 @@
         <v>210.94576663999999</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>199</v>
       </c>
@@ -9298,7 +9296,7 @@
         <v>488.63786728000002</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>200</v>
       </c>
@@ -9351,7 +9349,7 @@
         <v>9.8985135</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>201</v>
       </c>
@@ -9404,7 +9402,7 @@
         <v>4431.1184121599999</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>202</v>
       </c>
@@ -9425,7 +9423,7 @@
       <c r="P160" s="7"/>
       <c r="Q160" s="7"/>
     </row>
-    <row r="161" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>203</v>
       </c>
@@ -9446,7 +9444,7 @@
       <c r="P161" s="7"/>
       <c r="Q161" s="7"/>
     </row>
-    <row r="162" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>204</v>
       </c>
@@ -9499,7 +9497,7 @@
         <v>2728.4954333999999</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>205</v>
       </c>
@@ -9520,7 +9518,7 @@
       <c r="P163" s="7"/>
       <c r="Q163" s="7"/>
     </row>
-    <row r="164" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>206</v>
       </c>
@@ -9571,7 +9569,7 @@
       </c>
       <c r="Q164" s="7"/>
     </row>
-    <row r="165" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>207</v>
       </c>
@@ -9624,7 +9622,7 @@
         <v>9.30410717</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>208</v>
       </c>
@@ -9677,7 +9675,7 @@
         <v>23.789390260000001</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>209</v>
       </c>
@@ -9730,7 +9728,7 @@
         <v>2302.0864651100001</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
         <v>210</v>
       </c>
@@ -9751,7 +9749,7 @@
       <c r="P168" s="7"/>
       <c r="Q168" s="7"/>
     </row>
-    <row r="169" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
         <v>211</v>
       </c>
@@ -9772,7 +9770,7 @@
       <c r="P169" s="7"/>
       <c r="Q169" s="7"/>
     </row>
-    <row r="170" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>212</v>
       </c>
@@ -9793,7 +9791,7 @@
       <c r="P170" s="7"/>
       <c r="Q170" s="7"/>
     </row>
-    <row r="171" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>213</v>
       </c>
@@ -9846,7 +9844,7 @@
         <v>6788.3887561399997</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>214</v>
       </c>
@@ -9899,7 +9897,7 @@
         <v>460.21087194</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>215</v>
       </c>
@@ -9952,7 +9950,7 @@
         <v>8.3799678899999996</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>216</v>
       </c>
@@ -10005,7 +10003,7 @@
         <v>657.00835161999998</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>217</v>
       </c>
@@ -10058,7 +10056,7 @@
         <v>462.91904191999998</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>218</v>
       </c>
@@ -10111,7 +10109,7 @@
         <v>35.35712942</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>219</v>
       </c>
@@ -10164,7 +10162,7 @@
         <v>59.297241309999997</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>220</v>
       </c>
@@ -10217,7 +10215,7 @@
         <v>145.19148447000001</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>221</v>
       </c>
@@ -10270,7 +10268,7 @@
         <v>27.330583699999998</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>222</v>
       </c>
@@ -10291,7 +10289,7 @@
       <c r="P180" s="7"/>
       <c r="Q180" s="7"/>
     </row>
-    <row r="181" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
         <v>223</v>
       </c>
@@ -10344,7 +10342,7 @@
         <v>666.01938308000001</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
         <v>224</v>
       </c>
@@ -10397,7 +10395,7 @@
         <v>1612.7512732099999</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
         <v>225</v>
       </c>
@@ -10418,7 +10416,7 @@
       <c r="P183" s="7"/>
       <c r="Q183" s="7"/>
     </row>
-    <row r="184" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
         <v>226</v>
       </c>
@@ -10471,7 +10469,7 @@
         <v>1153.07598906</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
         <v>227</v>
       </c>
@@ -10492,7 +10490,7 @@
       <c r="P185" s="7"/>
       <c r="Q185" s="7"/>
     </row>
-    <row r="186" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
         <v>228</v>
       </c>
@@ -10545,7 +10543,7 @@
         <v>334.31746115999999</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
         <v>229</v>
       </c>
@@ -10598,7 +10596,7 @@
         <v>326.09202964000002</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
         <v>230</v>
       </c>
@@ -10651,7 +10649,7 @@
         <v>27.796329320000002</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
         <v>231</v>
       </c>
@@ -10672,7 +10670,7 @@
       <c r="P189" s="7"/>
       <c r="Q189" s="7"/>
     </row>
-    <row r="190" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
         <v>232</v>
       </c>
@@ -10693,7 +10691,7 @@
       <c r="P190" s="7"/>
       <c r="Q190" s="7"/>
     </row>
-    <row r="191" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
         <v>233</v>
       </c>
@@ -10746,7 +10744,7 @@
         <v>404.98878329000001</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
         <v>234</v>
       </c>
@@ -10799,7 +10797,7 @@
         <v>281.48247400000002</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
         <v>235</v>
       </c>
@@ -10820,7 +10818,7 @@
       <c r="P193" s="7"/>
       <c r="Q193" s="7"/>
     </row>
-    <row r="194" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
         <v>236</v>
       </c>
@@ -10873,7 +10871,7 @@
         <v>240.44788754000001</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
         <v>237</v>
       </c>
@@ -10894,7 +10892,7 @@
       <c r="P195" s="7"/>
       <c r="Q195" s="7"/>
     </row>
-    <row r="196" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
         <v>238</v>
       </c>
@@ -10947,7 +10945,7 @@
         <v>178.81395950999999</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
         <v>239</v>
       </c>
@@ -11000,7 +10998,7 @@
         <v>3120.0243001600002</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
         <v>240</v>
       </c>
@@ -11053,7 +11051,7 @@
         <v>34.447340769999997</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
         <v>241</v>
       </c>
@@ -11106,7 +11104,7 @@
         <v>427.22197706999998</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
         <v>242</v>
       </c>
@@ -11159,7 +11157,7 @@
         <v>32.46603794</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
         <v>243</v>
       </c>
@@ -11212,7 +11210,7 @@
         <v>337.83045838999999</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
         <v>244</v>
       </c>
@@ -11233,7 +11231,7 @@
       <c r="P202" s="7"/>
       <c r="Q202" s="7"/>
     </row>
-    <row r="203" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
         <v>245</v>
       </c>
@@ -11254,7 +11252,7 @@
       <c r="P203" s="7"/>
       <c r="Q203" s="7"/>
     </row>
-    <row r="204" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
         <v>246</v>
       </c>
@@ -11307,7 +11305,7 @@
         <v>338.54272178000002</v>
       </c>
     </row>
-    <row r="205" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
         <v>247</v>
       </c>
@@ -11360,7 +11358,7 @@
         <v>4.8169555600000002</v>
       </c>
     </row>
-    <row r="206" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
         <v>248</v>
       </c>
@@ -11413,7 +11411,7 @@
         <v>629.09659420000003</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
         <v>249</v>
       </c>
@@ -11466,7 +11464,7 @@
         <v>930.29322625999998</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
         <v>250</v>
       </c>
@@ -11519,7 +11517,7 @@
         <v>1586.85123335</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
         <v>251</v>
       </c>
@@ -11572,7 +11570,7 @@
         <v>99.560215889999995</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
         <v>252</v>
       </c>
@@ -11607,7 +11605,7 @@
       <c r="P210" s="7"/>
       <c r="Q210" s="7"/>
     </row>
-    <row r="211" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
         <v>253</v>
       </c>
@@ -11628,7 +11626,7 @@
       <c r="P211" s="7"/>
       <c r="Q211" s="7"/>
     </row>
-    <row r="212" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
         <v>254</v>
       </c>
@@ -11681,7 +11679,7 @@
         <v>286.10006465999999</v>
       </c>
     </row>
-    <row r="213" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
         <v>255</v>
       </c>
@@ -11702,7 +11700,7 @@
       <c r="P213" s="7"/>
       <c r="Q213" s="7"/>
     </row>
-    <row r="214" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
         <v>256</v>
       </c>
@@ -11755,7 +11753,7 @@
         <v>2099.0959122899999</v>
       </c>
     </row>
-    <row r="215" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
         <v>257</v>
       </c>
@@ -11808,7 +11806,7 @@
         <v>31.305791679999999</v>
       </c>
     </row>
-    <row r="216" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
         <v>258</v>
       </c>
@@ -11861,7 +11859,7 @@
         <v>25.016534329999999</v>
       </c>
     </row>
-    <row r="217" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
         <v>259</v>
       </c>
@@ -11914,7 +11912,7 @@
         <v>235.35419231</v>
       </c>
     </row>
-    <row r="218" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
         <v>260</v>
       </c>
@@ -11935,7 +11933,7 @@
       <c r="P218" s="7"/>
       <c r="Q218" s="7"/>
     </row>
-    <row r="219" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
         <v>261</v>
       </c>
@@ -11988,7 +11986,7 @@
         <v>129.30581330000001</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
         <v>262</v>
       </c>
@@ -12041,7 +12039,7 @@
         <v>3820.11679392</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
         <v>263</v>
       </c>
@@ -12094,7 +12092,7 @@
         <v>4610.7746097899999</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
         <v>264</v>
       </c>
@@ -12147,7 +12145,7 @@
         <v>44.429104809999998</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
         <v>265</v>
       </c>
@@ -12168,7 +12166,7 @@
       <c r="P223" s="7"/>
       <c r="Q223" s="7"/>
     </row>
-    <row r="224" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="s">
         <v>266</v>
       </c>
@@ -12221,7 +12219,7 @@
         <v>13.080335549999999</v>
       </c>
     </row>
-    <row r="225" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="8" t="s">
         <v>267</v>
       </c>
@@ -12274,7 +12272,7 @@
         <v>20.80846017</v>
       </c>
     </row>
-    <row r="226" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="s">
         <v>268</v>
       </c>
@@ -12327,7 +12325,7 @@
         <v>134.43340545999999</v>
       </c>
     </row>
-    <row r="227" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
         <v>269</v>
       </c>
@@ -12380,7 +12378,7 @@
         <v>31.744422360000002</v>
       </c>
     </row>
-    <row r="228" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
         <v>270</v>
       </c>
@@ -12433,7 +12431,7 @@
         <v>17.96115138</v>
       </c>
     </row>
-    <row r="229" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
         <v>271</v>
       </c>
@@ -12454,7 +12452,7 @@
       <c r="P229" s="7"/>
       <c r="Q229" s="7"/>
     </row>
-    <row r="230" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
         <v>272</v>
       </c>
@@ -12507,7 +12505,7 @@
         <v>140.01594921</v>
       </c>
     </row>
-    <row r="231" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
         <v>273</v>
       </c>
@@ -12528,7 +12526,7 @@
       <c r="P231" s="7"/>
       <c r="Q231" s="7"/>
     </row>
-    <row r="232" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
         <v>274</v>
       </c>
@@ -12581,7 +12579,7 @@
         <v>515.64324455999997</v>
       </c>
     </row>
-    <row r="233" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="8" t="s">
         <v>275</v>
       </c>
@@ -12634,7 +12632,7 @@
         <v>129.14504282999999</v>
       </c>
     </row>
-    <row r="234" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
         <v>276</v>
       </c>
@@ -12687,7 +12685,7 @@
         <v>509.96374350000002</v>
       </c>
     </row>
-    <row r="235" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
         <v>277</v>
       </c>
@@ -12740,7 +12738,7 @@
         <v>62.99335327</v>
       </c>
     </row>
-    <row r="236" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="s">
         <v>278</v>
       </c>
@@ -12761,7 +12759,7 @@
       <c r="P236" s="7"/>
       <c r="Q236" s="7"/>
     </row>
-    <row r="237" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
         <v>279</v>
       </c>
@@ -12814,7 +12812,7 @@
         <v>567.45131218999995</v>
       </c>
     </row>
-    <row r="238" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
         <v>280</v>
       </c>
@@ -12867,7 +12865,7 @@
         <v>10.15830802</v>
       </c>
     </row>
-    <row r="239" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
         <v>281</v>
       </c>
@@ -12920,7 +12918,7 @@
         <v>132.71233821999999</v>
       </c>
     </row>
-    <row r="240" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="s">
         <v>282</v>
       </c>
@@ -12973,7 +12971,7 @@
         <v>1078.2392533899999</v>
       </c>
     </row>
-    <row r="241" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
         <v>283</v>
       </c>
@@ -13026,7 +13024,7 @@
         <v>2938.4240049</v>
       </c>
     </row>
-    <row r="242" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="s">
         <v>284</v>
       </c>
@@ -13079,7 +13077,7 @@
         <v>4436.6070492600002</v>
       </c>
     </row>
-    <row r="243" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
         <v>285</v>
       </c>
@@ -13132,7 +13130,7 @@
         <v>669.40953284</v>
       </c>
     </row>
-    <row r="244" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
         <v>286</v>
       </c>
@@ -13153,7 +13151,7 @@
       <c r="P244" s="7"/>
       <c r="Q244" s="7"/>
     </row>
-    <row r="245" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
         <v>287</v>
       </c>
@@ -13206,7 +13204,7 @@
         <v>39.132169830000002</v>
       </c>
     </row>
-    <row r="246" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
         <v>288</v>
       </c>
@@ -13227,7 +13225,7 @@
       <c r="P246" s="7"/>
       <c r="Q246" s="7"/>
     </row>
-    <row r="247" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
         <v>289</v>
       </c>
@@ -13280,7 +13278,7 @@
         <v>142.56482940000001</v>
       </c>
     </row>
-    <row r="248" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
         <v>290</v>
       </c>
@@ -13333,7 +13331,7 @@
         <v>231.51860224000001</v>
       </c>
     </row>
-    <row r="249" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="8" t="s">
         <v>291</v>
       </c>
@@ -13354,7 +13352,7 @@
       <c r="P249" s="7"/>
       <c r="Q249" s="7"/>
     </row>
-    <row r="250" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="s">
         <v>292</v>
       </c>
@@ -13375,7 +13373,7 @@
       <c r="P250" s="7"/>
       <c r="Q250" s="7"/>
     </row>
-    <row r="251" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="8" t="s">
         <v>293</v>
       </c>
@@ -13396,7 +13394,7 @@
       <c r="P251" s="7"/>
       <c r="Q251" s="7"/>
     </row>
-    <row r="252" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
         <v>294</v>
       </c>
@@ -13449,7 +13447,7 @@
         <v>31.359855459999999</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="8" t="s">
         <v>295</v>
       </c>
@@ -13470,7 +13468,7 @@
       <c r="P253" s="7"/>
       <c r="Q253" s="7"/>
     </row>
-    <row r="254" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="s">
         <v>296</v>
       </c>
@@ -13491,7 +13489,7 @@
       <c r="P254" s="7"/>
       <c r="Q254" s="7"/>
     </row>
-    <row r="255" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
         <v>297</v>
       </c>
@@ -13512,7 +13510,7 @@
       <c r="P255" s="7"/>
       <c r="Q255" s="7"/>
     </row>
-    <row r="256" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
         <v>298</v>
       </c>
@@ -13565,7 +13563,7 @@
         <v>15.269639939999999</v>
       </c>
     </row>
-    <row r="257" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
         <v>299</v>
       </c>
@@ -13586,7 +13584,7 @@
       <c r="P257" s="7"/>
       <c r="Q257" s="7"/>
     </row>
-    <row r="258" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
         <v>300</v>
       </c>
@@ -13639,7 +13637,7 @@
         <v>43.932037450000003</v>
       </c>
     </row>
-    <row r="259" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
         <v>301</v>
       </c>
@@ -13674,7 +13672,7 @@
       <c r="P259" s="7"/>
       <c r="Q259" s="7"/>
     </row>
-    <row r="260" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
         <v>302</v>
       </c>
@@ -13695,7 +13693,7 @@
       <c r="P260" s="7"/>
       <c r="Q260" s="7"/>
     </row>
-    <row r="261" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
         <v>303</v>
       </c>
@@ -13716,7 +13714,7 @@
       <c r="P261" s="7"/>
       <c r="Q261" s="7"/>
     </row>
-    <row r="262" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
         <v>304</v>
       </c>
@@ -13737,7 +13735,7 @@
       <c r="P262" s="7"/>
       <c r="Q262" s="7"/>
     </row>
-    <row r="263" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="8" t="s">
         <v>305</v>
       </c>
@@ -13758,7 +13756,7 @@
       <c r="P263" s="7"/>
       <c r="Q263" s="7"/>
     </row>
-    <row r="264" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
         <v>306</v>
       </c>
@@ -13779,7 +13777,7 @@
       <c r="P264" s="7"/>
       <c r="Q264" s="7"/>
     </row>
-    <row r="265" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
         <v>307</v>
       </c>
@@ -13800,7 +13798,7 @@
       <c r="P265" s="7"/>
       <c r="Q265" s="7"/>
     </row>
-    <row r="266" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
         <v>308</v>
       </c>
@@ -13837,17 +13835,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
-    <col min="3" max="3" width="91.28515625" customWidth="1"/>
-    <col min="4" max="4" width="2.28515625" customWidth="1"/>
-    <col min="5" max="5" width="1560.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.1796875" customWidth="1"/>
+    <col min="2" max="2" width="44.54296875" customWidth="1"/>
+    <col min="3" max="3" width="91.26953125" customWidth="1"/>
+    <col min="4" max="4" width="2.26953125" customWidth="1"/>
+    <col min="5" max="5" width="1560.54296875" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="76" t="str">
         <f>C4</f>
@@ -13858,7 +13856,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -13866,7 +13864,7 @@
       <c r="E2" s="13"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="21" t="s">
         <v>29</v>
@@ -13876,7 +13874,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="23" t="s">
         <v>34</v>
@@ -13888,7 +13886,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="26" t="s">
         <v>38</v>
@@ -13900,7 +13898,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="26" t="s">
         <v>42</v>
@@ -13910,7 +13908,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="29"/>
@@ -13918,7 +13916,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="31" t="s">
         <v>47</v>
@@ -13928,7 +13926,7 @@
       <c r="E8" s="34"/>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="35" t="s">
         <v>52</v>
@@ -13940,7 +13938,7 @@
       <c r="E9" s="34"/>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="38" t="s">
         <v>56</v>
@@ -13953,7 +13951,7 @@
       <c r="E10" s="34"/>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="38" t="s">
         <v>62</v>
@@ -13965,7 +13963,7 @@
       <c r="E11" s="34"/>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="38" t="s">
         <v>67</v>
@@ -13977,7 +13975,7 @@
       <c r="E12" s="34"/>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="43"/>
       <c r="C13" s="44"/>
@@ -13985,7 +13983,7 @@
       <c r="E13" s="34"/>
       <c r="F13" s="19"/>
     </row>
-    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="31" t="s">
         <v>73</v>
@@ -13995,7 +13993,7 @@
       <c r="E14" s="34"/>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="35" t="s">
         <v>74</v>
@@ -14007,7 +14005,7 @@
       <c r="E15" s="34"/>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="38" t="s">
         <v>76</v>
@@ -14019,7 +14017,7 @@
       <c r="E16" s="34"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="33"/>
       <c r="C17" s="46"/>
@@ -14027,7 +14025,7 @@
       <c r="E17" s="34"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="33"/>
       <c r="C18" s="46"/>
@@ -14035,7 +14033,7 @@
       <c r="E18" s="34"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="33"/>
       <c r="C19" s="46"/>
@@ -14043,7 +14041,7 @@
       <c r="E19" s="34"/>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="33"/>
       <c r="C20" s="46"/>
@@ -14051,7 +14049,7 @@
       <c r="E20" s="34"/>
       <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="33"/>
       <c r="C21" s="46"/>
@@ -14059,7 +14057,7 @@
       <c r="E21" s="34"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="33"/>
       <c r="C22" s="47"/>
@@ -14067,7 +14065,7 @@
       <c r="E22" s="34"/>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="43"/>
       <c r="C23" s="48"/>
@@ -14075,7 +14073,7 @@
       <c r="E23" s="34"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -14083,7 +14081,7 @@
       <c r="E24" s="34"/>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -14109,19 +14107,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="91.28515625" customWidth="1"/>
-    <col min="4" max="21" width="5.5703125" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" customWidth="1"/>
-    <col min="25" max="25" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="91.26953125" customWidth="1"/>
+    <col min="4" max="21" width="5.54296875" customWidth="1"/>
+    <col min="22" max="22" width="6.54296875" customWidth="1"/>
+    <col min="23" max="23" width="7.7265625" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" customWidth="1"/>
+    <col min="25" max="25" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -14154,7 +14152,7 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="7"/>
     </row>
-    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -14187,7 +14185,7 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="7"/>
     </row>
-    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
@@ -14220,7 +14218,7 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="7"/>
     </row>
-    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
@@ -14253,7 +14251,7 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="7"/>
     </row>
-    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="4"/>
@@ -14280,7 +14278,7 @@
       <c r="X5" s="6"/>
       <c r="Y5" s="7"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="4"/>
@@ -14307,7 +14305,7 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="7"/>
     </row>
-    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -14334,7 +14332,7 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="7"/>
     </row>
-    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -14361,7 +14359,7 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="7"/>
     </row>
-    <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -14388,7 +14386,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -14415,7 +14413,7 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -14442,7 +14440,7 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="7"/>
     </row>
-    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -14469,7 +14467,7 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="7"/>
     </row>
-    <row r="13" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -14496,7 +14494,7 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="7"/>
     </row>
-    <row r="14" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -14523,7 +14521,7 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="7"/>
     </row>
-    <row r="15" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -14550,7 +14548,7 @@
       <c r="X15" s="6"/>
       <c r="Y15" s="7"/>
     </row>
-    <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -14577,7 +14575,7 @@
       <c r="X16" s="6"/>
       <c r="Y16" s="7"/>
     </row>
-    <row r="17" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -14604,7 +14602,7 @@
       <c r="X17" s="6"/>
       <c r="Y17" s="7"/>
     </row>
-    <row r="18" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -14631,7 +14629,7 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="7"/>
     </row>
-    <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -14658,7 +14656,7 @@
       <c r="X19" s="6"/>
       <c r="Y19" s="7"/>
     </row>
-    <row r="20" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -14685,7 +14683,7 @@
       <c r="X20" s="6"/>
       <c r="Y20" s="7"/>
     </row>
-    <row r="21" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -14712,7 +14710,7 @@
       <c r="X21" s="6"/>
       <c r="Y21" s="7"/>
     </row>
-    <row r="22" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -14739,7 +14737,7 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="7"/>
     </row>
-    <row r="23" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -14766,7 +14764,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="7"/>
     </row>
-    <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -14793,7 +14791,7 @@
       <c r="X24" s="6"/>
       <c r="Y24" s="7"/>
     </row>
-    <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -14820,7 +14818,7 @@
       <c r="X25" s="6"/>
       <c r="Y25" s="7"/>
     </row>
-    <row r="26" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -14847,7 +14845,7 @@
       <c r="X26" s="6"/>
       <c r="Y26" s="7"/>
     </row>
-    <row r="27" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -14874,7 +14872,7 @@
       <c r="X27" s="6"/>
       <c r="Y27" s="7"/>
     </row>
-    <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -14901,7 +14899,7 @@
       <c r="X28" s="6"/>
       <c r="Y28" s="7"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -14928,7 +14926,7 @@
       <c r="X29" s="6"/>
       <c r="Y29" s="7"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -14955,7 +14953,7 @@
       <c r="X30" s="6"/>
       <c r="Y30" s="7"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -14982,7 +14980,7 @@
       <c r="X31" s="6"/>
       <c r="Y31" s="7"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -15009,7 +15007,7 @@
       <c r="X32" s="6"/>
       <c r="Y32" s="7"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -15036,7 +15034,7 @@
       <c r="X33" s="6"/>
       <c r="Y33" s="7"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -15063,7 +15061,7 @@
       <c r="X34" s="6"/>
       <c r="Y34" s="7"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -15090,7 +15088,7 @@
       <c r="X35" s="6"/>
       <c r="Y35" s="7"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -15117,7 +15115,7 @@
       <c r="X36" s="6"/>
       <c r="Y36" s="7"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -15144,7 +15142,7 @@
       <c r="X37" s="6"/>
       <c r="Y37" s="7"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -15171,7 +15169,7 @@
       <c r="X38" s="6"/>
       <c r="Y38" s="7"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -15198,7 +15196,7 @@
       <c r="X39" s="6"/>
       <c r="Y39" s="7"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -15225,7 +15223,7 @@
       <c r="X40" s="6"/>
       <c r="Y40" s="7"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -15252,7 +15250,7 @@
       <c r="X41" s="6"/>
       <c r="Y41" s="7"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -15279,7 +15277,7 @@
       <c r="X42" s="6"/>
       <c r="Y42" s="7"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -15306,7 +15304,7 @@
       <c r="X43" s="6"/>
       <c r="Y43" s="7"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -15333,7 +15331,7 @@
       <c r="X44" s="6"/>
       <c r="Y44" s="7"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -15360,7 +15358,7 @@
       <c r="X45" s="6"/>
       <c r="Y45" s="7"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -15387,7 +15385,7 @@
       <c r="X46" s="6"/>
       <c r="Y46" s="7"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -15414,7 +15412,7 @@
       <c r="X47" s="6"/>
       <c r="Y47" s="7"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -15441,7 +15439,7 @@
       <c r="X48" s="6"/>
       <c r="Y48" s="7"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -15468,7 +15466,7 @@
       <c r="X49" s="6"/>
       <c r="Y49" s="7"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -15495,7 +15493,7 @@
       <c r="X50" s="6"/>
       <c r="Y50" s="7"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -15522,7 +15520,7 @@
       <c r="X51" s="6"/>
       <c r="Y51" s="7"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -15549,7 +15547,7 @@
       <c r="X52" s="6"/>
       <c r="Y52" s="7"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -15576,7 +15574,7 @@
       <c r="X53" s="6"/>
       <c r="Y53" s="7"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -15603,7 +15601,7 @@
       <c r="X54" s="6"/>
       <c r="Y54" s="7"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -15630,7 +15628,7 @@
       <c r="X55" s="6"/>
       <c r="Y55" s="7"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -15657,7 +15655,7 @@
       <c r="X56" s="6"/>
       <c r="Y56" s="7"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -15684,7 +15682,7 @@
       <c r="X57" s="6"/>
       <c r="Y57" s="7"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -15711,7 +15709,7 @@
       <c r="X58" s="6"/>
       <c r="Y58" s="7"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -15738,7 +15736,7 @@
       <c r="X59" s="6"/>
       <c r="Y59" s="7"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -15765,7 +15763,7 @@
       <c r="X60" s="6"/>
       <c r="Y60" s="7"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -15792,7 +15790,7 @@
       <c r="X61" s="6"/>
       <c r="Y61" s="7"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -15819,7 +15817,7 @@
       <c r="X62" s="6"/>
       <c r="Y62" s="7"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -15846,7 +15844,7 @@
       <c r="X63" s="6"/>
       <c r="Y63" s="7"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -15873,7 +15871,7 @@
       <c r="X64" s="6"/>
       <c r="Y64" s="7"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -15900,7 +15898,7 @@
       <c r="X65" s="6"/>
       <c r="Y65" s="7"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -15927,7 +15925,7 @@
       <c r="X66" s="6"/>
       <c r="Y66" s="7"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -15954,7 +15952,7 @@
       <c r="X67" s="6"/>
       <c r="Y67" s="7"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -15981,7 +15979,7 @@
       <c r="X68" s="6"/>
       <c r="Y68" s="7"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -16008,7 +16006,7 @@
       <c r="X69" s="6"/>
       <c r="Y69" s="7"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -16035,7 +16033,7 @@
       <c r="X70" s="6"/>
       <c r="Y70" s="7"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -16062,7 +16060,7 @@
       <c r="X71" s="6"/>
       <c r="Y71" s="7"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -16089,7 +16087,7 @@
       <c r="X72" s="6"/>
       <c r="Y72" s="7"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -16116,7 +16114,7 @@
       <c r="X73" s="6"/>
       <c r="Y73" s="7"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -16143,7 +16141,7 @@
       <c r="X74" s="6"/>
       <c r="Y74" s="7"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -16170,7 +16168,7 @@
       <c r="X75" s="6"/>
       <c r="Y75" s="7"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -16197,7 +16195,7 @@
       <c r="X76" s="6"/>
       <c r="Y76" s="7"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -16224,7 +16222,7 @@
       <c r="X77" s="6"/>
       <c r="Y77" s="7"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -16251,7 +16249,7 @@
       <c r="X78" s="6"/>
       <c r="Y78" s="7"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -16278,7 +16276,7 @@
       <c r="X79" s="6"/>
       <c r="Y79" s="7"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -16305,7 +16303,7 @@
       <c r="X80" s="6"/>
       <c r="Y80" s="7"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -16332,7 +16330,7 @@
       <c r="X81" s="6"/>
       <c r="Y81" s="7"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -16359,7 +16357,7 @@
       <c r="X82" s="6"/>
       <c r="Y82" s="7"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -16386,7 +16384,7 @@
       <c r="X83" s="6"/>
       <c r="Y83" s="7"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -16413,7 +16411,7 @@
       <c r="X84" s="6"/>
       <c r="Y84" s="7"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -16440,7 +16438,7 @@
       <c r="X85" s="6"/>
       <c r="Y85" s="7"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -16467,7 +16465,7 @@
       <c r="X86" s="6"/>
       <c r="Y86" s="7"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -16494,7 +16492,7 @@
       <c r="X87" s="6"/>
       <c r="Y87" s="7"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -16521,7 +16519,7 @@
       <c r="X88" s="6"/>
       <c r="Y88" s="7"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -16548,7 +16546,7 @@
       <c r="X89" s="6"/>
       <c r="Y89" s="7"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -16575,7 +16573,7 @@
       <c r="X90" s="6"/>
       <c r="Y90" s="7"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -16602,7 +16600,7 @@
       <c r="X91" s="6"/>
       <c r="Y91" s="7"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -16629,7 +16627,7 @@
       <c r="X92" s="6"/>
       <c r="Y92" s="7"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -16656,7 +16654,7 @@
       <c r="X93" s="6"/>
       <c r="Y93" s="7"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -16683,7 +16681,7 @@
       <c r="X94" s="6"/>
       <c r="Y94" s="7"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -16710,7 +16708,7 @@
       <c r="X95" s="6"/>
       <c r="Y95" s="7"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -16737,7 +16735,7 @@
       <c r="X96" s="6"/>
       <c r="Y96" s="7"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -16764,7 +16762,7 @@
       <c r="X97" s="6"/>
       <c r="Y97" s="7"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -16791,7 +16789,7 @@
       <c r="X98" s="6"/>
       <c r="Y98" s="7"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -16818,7 +16816,7 @@
       <c r="X99" s="6"/>
       <c r="Y99" s="7"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -16845,7 +16843,7 @@
       <c r="X100" s="6"/>
       <c r="Y100" s="7"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -16872,7 +16870,7 @@
       <c r="X101" s="6"/>
       <c r="Y101" s="7"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -16899,7 +16897,7 @@
       <c r="X102" s="6"/>
       <c r="Y102" s="7"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -16926,7 +16924,7 @@
       <c r="X103" s="6"/>
       <c r="Y103" s="7"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -16964,16 +16962,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" customWidth="1"/>
-    <col min="3" max="3" width="1.140625" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" customWidth="1"/>
-    <col min="5" max="6" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="54.26953125" customWidth="1"/>
+    <col min="3" max="3" width="1.1796875" customWidth="1"/>
+    <col min="4" max="4" width="56.54296875" customWidth="1"/>
+    <col min="5" max="6" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="78" t="s">
         <v>94</v>
       </c>
@@ -16983,7 +16981,7 @@
       <c r="E1" s="34"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="32"/>
       <c r="C2" s="52"/>
@@ -16991,7 +16989,7 @@
       <c r="E2" s="34"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
         <v>103</v>
       </c>
@@ -17005,7 +17003,7 @@
       <c r="E3" s="34"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
         <v>109</v>
       </c>
@@ -17019,7 +17017,7 @@
       <c r="E4" s="34"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>112</v>
       </c>
@@ -17033,7 +17031,7 @@
       <c r="E5" s="34"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
@@ -17041,7 +17039,7 @@
       <c r="E6" s="34"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -17049,7 +17047,7 @@
       <c r="E7" s="19"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -17057,7 +17055,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -17065,7 +17063,7 @@
       <c r="E9" s="19"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -17073,7 +17071,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -17081,7 +17079,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -17089,7 +17087,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -17097,7 +17095,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -17105,7 +17103,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -17113,7 +17111,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -17121,7 +17119,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -17129,7 +17127,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -17137,7 +17135,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -17145,7 +17143,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -17170,17 +17168,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="91.28515625" customWidth="1"/>
-    <col min="4" max="4" width="2.28515625" customWidth="1"/>
-    <col min="5" max="5" width="1560.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" customWidth="1"/>
+    <col min="3" max="3" width="91.26953125" customWidth="1"/>
+    <col min="4" max="4" width="2.26953125" customWidth="1"/>
+    <col min="5" max="5" width="1560.54296875" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="76" t="s">
         <v>132</v>
@@ -17190,7 +17188,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -17198,7 +17196,7 @@
       <c r="E2" s="13"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="81" t="s">
         <v>137</v>
@@ -17208,7 +17206,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
       <c r="B4" s="65" t="s">
         <v>141</v>
@@ -17220,7 +17218,7 @@
       <c r="E4" s="68"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
       <c r="B5" s="69" t="s">
         <v>145</v>
@@ -17232,7 +17230,7 @@
       <c r="E5" s="68"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="64"/>
       <c r="B6" s="69" t="s">
         <v>149</v>
@@ -17244,7 +17242,7 @@
       <c r="E6" s="68"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="64"/>
       <c r="B7" s="71"/>
       <c r="C7" s="72"/>
@@ -17252,7 +17250,7 @@
       <c r="E7" s="68"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
       <c r="B8" s="73"/>
       <c r="C8" s="73"/>
@@ -17260,7 +17258,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="75"/>
       <c r="C9" s="75"/>
@@ -17268,7 +17266,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -17276,7 +17274,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -17284,7 +17282,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -17292,7 +17290,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -17300,7 +17298,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -17308,7 +17306,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -17316,7 +17314,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -17324,7 +17322,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -17332,7 +17330,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -17340,7 +17338,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -17348,7 +17346,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -17371,17 +17369,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="21" width="5.5703125" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" customWidth="1"/>
-    <col min="25" max="25" width="9.28515625" customWidth="1"/>
+    <col min="1" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="21" width="5.54296875" customWidth="1"/>
+    <col min="22" max="22" width="6.54296875" customWidth="1"/>
+    <col min="23" max="23" width="7.7265625" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" customWidth="1"/>
+    <col min="25" max="25" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>161</v>
       </c>
@@ -17412,7 +17410,7 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="7"/>
     </row>
-    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -17439,7 +17437,7 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="7"/>
     </row>
-    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -17466,7 +17464,7 @@
       <c r="X3" s="6"/>
       <c r="Y3" s="7"/>
     </row>
-    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -17493,7 +17491,7 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="7"/>
     </row>
-    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -17520,7 +17518,7 @@
       <c r="X5" s="6"/>
       <c r="Y5" s="7"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -17547,7 +17545,7 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="7"/>
     </row>
-    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -17574,7 +17572,7 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="7"/>
     </row>
-    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -17601,7 +17599,7 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="7"/>
     </row>
-    <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -17628,7 +17626,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -17655,7 +17653,7 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -17682,7 +17680,7 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="7"/>
     </row>
-    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -17709,7 +17707,7 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="7"/>
     </row>
-    <row r="13" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -17736,7 +17734,7 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="7"/>
     </row>
-    <row r="14" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -17763,7 +17761,7 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="7"/>
     </row>
-    <row r="15" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -17790,7 +17788,7 @@
       <c r="X15" s="6"/>
       <c r="Y15" s="7"/>
     </row>
-    <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -17817,7 +17815,7 @@
       <c r="X16" s="6"/>
       <c r="Y16" s="7"/>
     </row>
-    <row r="17" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -17844,7 +17842,7 @@
       <c r="X17" s="6"/>
       <c r="Y17" s="7"/>
     </row>
-    <row r="18" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -17871,7 +17869,7 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="7"/>
     </row>
-    <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -17898,7 +17896,7 @@
       <c r="X19" s="6"/>
       <c r="Y19" s="7"/>
     </row>
-    <row r="20" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -17925,7 +17923,7 @@
       <c r="X20" s="6"/>
       <c r="Y20" s="7"/>
     </row>
-    <row r="21" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -17952,7 +17950,7 @@
       <c r="X21" s="6"/>
       <c r="Y21" s="7"/>
     </row>
-    <row r="22" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -17979,7 +17977,7 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="7"/>
     </row>
-    <row r="23" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -18006,7 +18004,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="7"/>
     </row>
-    <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -18033,7 +18031,7 @@
       <c r="X24" s="6"/>
       <c r="Y24" s="7"/>
     </row>
-    <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -18060,7 +18058,7 @@
       <c r="X25" s="6"/>
       <c r="Y25" s="7"/>
     </row>
-    <row r="26" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -18087,7 +18085,7 @@
       <c r="X26" s="6"/>
       <c r="Y26" s="7"/>
     </row>
-    <row r="27" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -18114,7 +18112,7 @@
       <c r="X27" s="6"/>
       <c r="Y27" s="7"/>
     </row>
-    <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -18141,7 +18139,7 @@
       <c r="X28" s="6"/>
       <c r="Y28" s="7"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -18168,7 +18166,7 @@
       <c r="X29" s="6"/>
       <c r="Y29" s="7"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -18195,7 +18193,7 @@
       <c r="X30" s="6"/>
       <c r="Y30" s="7"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -18222,7 +18220,7 @@
       <c r="X31" s="6"/>
       <c r="Y31" s="7"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -18249,7 +18247,7 @@
       <c r="X32" s="6"/>
       <c r="Y32" s="7"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -18276,7 +18274,7 @@
       <c r="X33" s="6"/>
       <c r="Y33" s="7"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -18303,7 +18301,7 @@
       <c r="X34" s="6"/>
       <c r="Y34" s="7"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -18330,7 +18328,7 @@
       <c r="X35" s="6"/>
       <c r="Y35" s="7"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -18357,7 +18355,7 @@
       <c r="X36" s="6"/>
       <c r="Y36" s="7"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -18384,7 +18382,7 @@
       <c r="X37" s="6"/>
       <c r="Y37" s="7"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -18411,7 +18409,7 @@
       <c r="X38" s="6"/>
       <c r="Y38" s="7"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -18438,7 +18436,7 @@
       <c r="X39" s="6"/>
       <c r="Y39" s="7"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -18465,7 +18463,7 @@
       <c r="X40" s="6"/>
       <c r="Y40" s="7"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -18492,7 +18490,7 @@
       <c r="X41" s="6"/>
       <c r="Y41" s="7"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -18519,7 +18517,7 @@
       <c r="X42" s="6"/>
       <c r="Y42" s="7"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -18546,7 +18544,7 @@
       <c r="X43" s="6"/>
       <c r="Y43" s="7"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -18573,7 +18571,7 @@
       <c r="X44" s="6"/>
       <c r="Y44" s="7"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -18600,7 +18598,7 @@
       <c r="X45" s="6"/>
       <c r="Y45" s="7"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -18627,7 +18625,7 @@
       <c r="X46" s="6"/>
       <c r="Y46" s="7"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -18654,7 +18652,7 @@
       <c r="X47" s="6"/>
       <c r="Y47" s="7"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -18681,7 +18679,7 @@
       <c r="X48" s="6"/>
       <c r="Y48" s="7"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -18708,7 +18706,7 @@
       <c r="X49" s="6"/>
       <c r="Y49" s="7"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -18735,7 +18733,7 @@
       <c r="X50" s="6"/>
       <c r="Y50" s="7"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -18762,7 +18760,7 @@
       <c r="X51" s="6"/>
       <c r="Y51" s="7"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -18789,7 +18787,7 @@
       <c r="X52" s="6"/>
       <c r="Y52" s="7"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -18816,7 +18814,7 @@
       <c r="X53" s="6"/>
       <c r="Y53" s="7"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -18843,7 +18841,7 @@
       <c r="X54" s="6"/>
       <c r="Y54" s="7"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -18870,7 +18868,7 @@
       <c r="X55" s="6"/>
       <c r="Y55" s="7"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -18897,7 +18895,7 @@
       <c r="X56" s="6"/>
       <c r="Y56" s="7"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -18924,7 +18922,7 @@
       <c r="X57" s="6"/>
       <c r="Y57" s="7"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -18951,7 +18949,7 @@
       <c r="X58" s="6"/>
       <c r="Y58" s="7"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -18978,7 +18976,7 @@
       <c r="X59" s="6"/>
       <c r="Y59" s="7"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -19005,7 +19003,7 @@
       <c r="X60" s="6"/>
       <c r="Y60" s="7"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -19032,7 +19030,7 @@
       <c r="X61" s="6"/>
       <c r="Y61" s="7"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -19059,7 +19057,7 @@
       <c r="X62" s="6"/>
       <c r="Y62" s="7"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -19086,7 +19084,7 @@
       <c r="X63" s="6"/>
       <c r="Y63" s="7"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -19113,7 +19111,7 @@
       <c r="X64" s="6"/>
       <c r="Y64" s="7"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -19140,7 +19138,7 @@
       <c r="X65" s="6"/>
       <c r="Y65" s="7"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -19167,7 +19165,7 @@
       <c r="X66" s="6"/>
       <c r="Y66" s="7"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -19194,7 +19192,7 @@
       <c r="X67" s="6"/>
       <c r="Y67" s="7"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -19221,7 +19219,7 @@
       <c r="X68" s="6"/>
       <c r="Y68" s="7"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -19248,7 +19246,7 @@
       <c r="X69" s="6"/>
       <c r="Y69" s="7"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -19275,7 +19273,7 @@
       <c r="X70" s="6"/>
       <c r="Y70" s="7"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -19302,7 +19300,7 @@
       <c r="X71" s="6"/>
       <c r="Y71" s="7"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -19329,7 +19327,7 @@
       <c r="X72" s="6"/>
       <c r="Y72" s="7"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -19356,7 +19354,7 @@
       <c r="X73" s="6"/>
       <c r="Y73" s="7"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -19383,7 +19381,7 @@
       <c r="X74" s="6"/>
       <c r="Y74" s="7"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -19410,7 +19408,7 @@
       <c r="X75" s="6"/>
       <c r="Y75" s="7"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -19437,7 +19435,7 @@
       <c r="X76" s="6"/>
       <c r="Y76" s="7"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -19464,7 +19462,7 @@
       <c r="X77" s="6"/>
       <c r="Y77" s="7"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -19491,7 +19489,7 @@
       <c r="X78" s="6"/>
       <c r="Y78" s="7"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -19518,7 +19516,7 @@
       <c r="X79" s="6"/>
       <c r="Y79" s="7"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -19545,7 +19543,7 @@
       <c r="X80" s="6"/>
       <c r="Y80" s="7"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -19572,7 +19570,7 @@
       <c r="X81" s="6"/>
       <c r="Y81" s="7"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -19599,7 +19597,7 @@
       <c r="X82" s="6"/>
       <c r="Y82" s="7"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -19626,7 +19624,7 @@
       <c r="X83" s="6"/>
       <c r="Y83" s="7"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -19653,7 +19651,7 @@
       <c r="X84" s="6"/>
       <c r="Y84" s="7"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -19680,7 +19678,7 @@
       <c r="X85" s="6"/>
       <c r="Y85" s="7"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -19707,7 +19705,7 @@
       <c r="X86" s="6"/>
       <c r="Y86" s="7"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -19734,7 +19732,7 @@
       <c r="X87" s="6"/>
       <c r="Y87" s="7"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -19761,7 +19759,7 @@
       <c r="X88" s="6"/>
       <c r="Y88" s="7"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -19788,7 +19786,7 @@
       <c r="X89" s="6"/>
       <c r="Y89" s="7"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -19815,7 +19813,7 @@
       <c r="X90" s="6"/>
       <c r="Y90" s="7"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -19842,7 +19840,7 @@
       <c r="X91" s="6"/>
       <c r="Y91" s="7"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -19869,7 +19867,7 @@
       <c r="X92" s="6"/>
       <c r="Y92" s="7"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -19896,7 +19894,7 @@
       <c r="X93" s="6"/>
       <c r="Y93" s="7"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -19923,7 +19921,7 @@
       <c r="X94" s="6"/>
       <c r="Y94" s="7"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -19950,7 +19948,7 @@
       <c r="X95" s="6"/>
       <c r="Y95" s="7"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -19977,7 +19975,7 @@
       <c r="X96" s="6"/>
       <c r="Y96" s="7"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -20004,7 +20002,7 @@
       <c r="X97" s="6"/>
       <c r="Y97" s="7"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -20031,7 +20029,7 @@
       <c r="X98" s="6"/>
       <c r="Y98" s="7"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -20058,7 +20056,7 @@
       <c r="X99" s="6"/>
       <c r="Y99" s="7"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -20085,7 +20083,7 @@
       <c r="X100" s="6"/>
       <c r="Y100" s="7"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -20112,7 +20110,7 @@
       <c r="X101" s="6"/>
       <c r="Y101" s="7"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -20139,7 +20137,7 @@
       <c r="X102" s="6"/>
       <c r="Y102" s="7"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -20166,7 +20164,7 @@
       <c r="X103" s="6"/>
       <c r="Y103" s="7"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -20193,7 +20191,7 @@
       <c r="X104" s="6"/>
       <c r="Y104" s="7"/>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
